--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NST\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDE2A3-C881-4F34-8BBE-3B8BA83CF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D1D27-7081-487C-A268-381BF7EE8C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -1837,7 +1837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1861,14 +1861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1883,7 +1875,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,6 +1891,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,30 +1935,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1974,9 +1983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2014,7 +2023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2120,7 +2129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2262,7 +2271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2270,10 +2279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2282,91 +2292,91 @@
     <col min="2" max="2" width="98.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="17" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2378,59 +2388,59 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2442,54 +2452,54 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="17" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2501,11 +2511,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2525,22 +2535,22 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="17" t="s">
         <v>368</v>
       </c>
     </row>
@@ -2560,14 +2570,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>598</v>
       </c>
     </row>
@@ -2579,25 +2589,25 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2609,60 +2619,60 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="17" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2682,19 +2692,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2746,78 +2756,78 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="17" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14" t="s">
+    <row r="59" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2833,25 +2843,25 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2863,11 +2873,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2879,23 +2889,23 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2903,23 +2913,23 @@
         <v>382</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2951,19 +2961,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2975,7 +2985,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -2999,7 +3009,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -5128,7 +5138,261 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}"/>
+  <autoFilter ref="B1:B350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Epic Games"/>
+        <filter val="htps://www.jetbrains.com/pycharm"/>
+        <filter val="http://comcigan.co.kr/xe/jdata/19463"/>
+        <filter val="http://www.ezpdf.co.kr/main/downPage/downPage.jsp"/>
+        <filter val="https//line.me/ko/"/>
+        <filter val="https://advert.estsoft.com/?event=200803271705239"/>
+        <filter val="https://ajuda.nelogica.com.br/hc/pt-br/articles/360061369691-Como-realizar-o-Download-da-Plataforma"/>
+        <filter val="https://albiononline.com/en/download"/>
+        <filter val="https://altools.co.kr/download/alcapture.aspx/Mobile"/>
+        <filter val="https://altools.co.kr/download/alsee.aspx"/>
+        <filter val="https://altools.co.kr/product/ALTOOLS"/>
+        <filter val="https://anydesk.softonic.kr"/>
+        <filter val="https://app.prntscr.com/en/index.html"/>
+        <filter val="https://appdown.pstatic.net/naver/NaverMediaPlayer/setup/SeriesPlayerInst.exe"/>
+        <filter val="https://apps.microsoft.com/detail/9p6rc76msmmj?hl=en-us&amp;gl=EN"/>
+        <filter val="https://aws.amazon.com/chime"/>
+        <filter val="https://band.us/cs/notice/1301"/>
+        <filter val="https://biz.epost.go.kr/comm/downLoad.jsp?folderName=systemProgram&amp;fileName=Setup_OZ_Viewer_R.exe"/>
+        <filter val="https://blitz.gg"/>
+        <filter val="https://clamwin.com/"/>
+        <filter val="https://code.visualstudio.com"/>
+        <filter val="https://creativecloud.adobe.com/apps/download/creative-cloud"/>
+        <filter val="https://customerconnect.vmware.com/"/>
+        <filter val="https://customerconnect.vmware.com/en/downloads"/>
+        <filter val="https://cygwin.com/install.html"/>
+        <filter val="https://dbeaver.io"/>
+        <filter val="https://developer.android.com/studio"/>
+        <filter val="https://docs.microsoft.com/ko-kr/sql/ssms/download-sql-server-management-studio-ssms?view=sql-server-ver16"/>
+        <filter val="https://doublecommander.com/"/>
+        <filter val="https://download.cnet.com/cd-dvd-viewer/3001-2248_4-75664946.html?dt=internalDownload"/>
+        <filter val="https://duckduckgo.com/windows"/>
+        <filter val="https://duo.google.com"/>
+        <filter val="https://en.bignox.com"/>
+        <filter val="https://evernote.com"/>
+        <filter val="https://filezilla-project.org/download.php?type=client"/>
+        <filter val="https://filmora.wondershare.kr"/>
+        <filter val="https://gaggle.fun/goose-goose-duck"/>
+        <filter val="https://genshin.hoyoverse.com/ko/download?utm_source=fab"/>
+        <filter val="https://hometax.go.kr/html/pp/veraport/html/nx_veraportView.html"/>
+        <filter val="https://iblogbox.com/npdf/"/>
+        <filter val="https://im.qq.com/pcqq"/>
+        <filter val="https://kep.ktcu.or.kr"/>
+        <filter val="https://ko.libreoffice.org/download/libreoffice-fresh/"/>
+        <filter val="https://kr.bandisoft.com/bandizip"/>
+        <filter val="https://kr.dwgfastview.com/cloud/download/"/>
+        <filter val="https://kr.ldplayer.net/download/install"/>
+        <filter val="https://kr.norton.com/products/norton-360"/>
+        <filter val="https://medibang-paint-pro.en.softonic.com"/>
+        <filter val="https://meet.goto.com/install"/>
+        <filter val="https://moneydance.com/"/>
+        <filter val="https://mybank.ibk.co.kr/uib/jsp/index.jsp"/>
+        <filter val="https://ncpurple.com/kr/intro/index"/>
+        <filter val="https://netbeans.apache.org/front/main/index.html"/>
+        <filter val="https://new.real.download.dws.co.kr/download/eFriendPlus_setup.exe"/>
+        <filter val="https://notepad-plus-plus.org/downloads/"/>
+        <filter val="https://obsproject.com/download"/>
+        <filter val="https://ohsoft.net/kor/ocam/download.php"/>
+        <filter val="https://op.gg/desktop/"/>
+        <filter val="https://openrefine.org/"/>
+        <filter val="https://openvpn.net/community-downloads/"/>
+        <filter val="https://pc.weixin.qq.com/?=win_weixin&amp;lang=en"/>
+        <filter val="https://pdf.wondershare.com/donwload.html"/>
+        <filter val="https://pdf-xchange.eu/pdf-xchange-editor/index.htm"/>
+        <filter val="https://picpick.net/"/>
+        <filter val="https://playruneterra.com/ko-kr/"/>
+        <filter val="https://playvalorant.com/kr-kr/"/>
+        <filter val="https://prismlive.com"/>
+        <filter val="https://q-dir.softonic.kr/download"/>
+        <filter val="https://secure-browser.softonic.kr"/>
+        <filter val="https://series.naver.com/booksviewer/html/nstore/epub_install_guide.html"/>
+        <filter val="https://series.naver.com/comic/viewer/install/guide"/>
+        <filter val="https://socialclub.rockstargames.com/rockstar-games-launcher"/>
+        <filter val="https://sourceforge.net/projects/orwelldevcpp/"/>
+        <filter val="https://speed.nia.or.kr/CheckAgent.asp?mode=speed"/>
+        <filter val="https://store.ubi.com/kr/home"/>
+        <filter val="https://support.microsoft.com/"/>
+        <filter val="https://tools.pdf24.org/en/creator"/>
+        <filter val="https://turbocleaner.co.kr"/>
+        <filter val="https://tv.kakao.com/guide/potplayer"/>
+        <filter val="https://ucworks.io/download-ucworks/"/>
+        <filter val="https://unity.com/kr/download"/>
+        <filter val="https://v.kr.kollus.com/pc_player_install/agent?cpk=megastudyedu"/>
+        <filter val="https://visualstudio.microsoft.com"/>
+        <filter val="https://vivaldi.com"/>
+        <filter val="https://wavebrowser.com"/>
+        <filter val="https://webminwon.com/webminwon_portal/cert.html#reload"/>
+        <filter val="https://whale.naver.com/ko/download/win/"/>
+        <filter val="https://worldofwarships.asia/en/content/game/"/>
+        <filter val="https://ww.adobe.com/kr/products/illustrator.html"/>
+        <filter val="https://www,altools.co.kr/download/alpdf.aspx"/>
+        <filter val="https://www,gobest.kr/goclean_app/index.htm"/>
+        <filter val="https://www,google.com/earth/"/>
+        <filter val="https://www,whatsapp.com/download"/>
+        <filter val="https://www.5kplayer.com/#5KPlayer"/>
+        <filter val="https://www.adobe.com"/>
+        <filter val="https://www.adobe.com/kor/products/photosho-lightroom.html"/>
+        <filter val="https://www.adobe.com/kr/acrobat.html"/>
+        <filter val="https://www.adobe.com/kr/acrobat/pdf-reader.html"/>
+        <filter val="https://www.adobe.com/kr/products/aftereffects/free-trial-download.html#"/>
+        <filter val="https://www.adobe.com/kr/products/indesign.html"/>
+        <filter val="https://www.afreecatv.com → Play arbitrary image → Change resolution to 1080p and download 'high definition streamer'"/>
+        <filter val="https://www.ahnlab.com/kr/site/productView.do?prodSeq=8"/>
+        <filter val="https://www.altools.co.kr"/>
+        <filter val="https://www.anaconda.com/download/success"/>
+        <filter val="https://www.atube.me"/>
+        <filter val="https://www.autodesk.co.kr/products/autocad"/>
+        <filter val="https://www.autodesk.com/products.dwg-trueview/overview"/>
+        <filter val="https://www.autodesk.com/products/autodesk-access/overview"/>
+        <filter val="https://www.avast.com"/>
+        <filter val="https://www.avast.com/cleanup#pc"/>
+        <filter val="https://www.avast.com/en-us/driver-update#pc"/>
+        <filter val="https://www.avast.com/secureline-vpn"/>
+        <filter val="https://www.avg.com/en-us/free-antivirus-download#pc"/>
+        <filter val="https://www.avg.com/ko-kr/secure-browser#pc"/>
+        <filter val="https://www.avira.com"/>
+        <filter val="https://www.bandicam.com/downloads/"/>
+        <filter val="https://www.bandisoft.com"/>
+        <filter val="https://www.binance.com"/>
+        <filter val="https://www.bitdefender.com/solutions/free.html"/>
+        <filter val="https://www.bittorrent.com/"/>
+        <filter val="https://www.blizzard.com"/>
+        <filter val="https://www.bluestacks.com/download.html"/>
+        <filter val="https://www.brainasoft.com/braina/buy/pc-download.html"/>
+        <filter val="https://www.breezip.com"/>
+        <filter val="https://www.brother-korea.com/ko-kr/support"/>
+        <filter val="https://www.canva.com"/>
+        <filter val="https://www.capcut.com"/>
+        <filter val="https://www.ccleaner.com/ccleaner/download"/>
+        <filter val="https://www.checkmal.com/product/appcheck/?lang=ko"/>
+        <filter val="https://www.clipstudio.net/"/>
+        <filter val="https://www.clipstudio.net/en/dl/"/>
+        <filter val="https://www.codeblocks.org/downloads/"/>
+        <filter val="https://www.coolmessenger.com/front_n/support/download.asp"/>
+        <filter val="https://www.coreldraw.com/"/>
+        <filter val="https://www.deepl.com/en/app/"/>
+        <filter val="https://www.desktopcal.com"/>
+        <filter val="https://www.drawboard.com"/>
+        <filter val="https://www.dropbox.com/install"/>
+        <filter val="https://www.ea.com"/>
+        <filter val="https://www.ebs.co.kr/common/ZoneMediaPlayer/site/ebs/download/Setup.exe"/>
+        <filter val="https://www.eclipse.org/downloads"/>
+        <filter val="https://www.editplus.com/kr/download.html"/>
+        <filter val="https://www.emsisoft.com/en/home/emergency-kit/"/>
+        <filter val="https://www.epki.go.kr"/>
+        <filter val="https://www.estsecurity.com"/>
+        <filter val="https://www.formtec.co.kr/software/software_main.html"/>
+        <filter val="https://www.fortinet.com/support/product-downloads"/>
+        <filter val="https://www.foxit.com/pdf-reader/"/>
+        <filter val="https://www.gbuspb.kr"/>
+        <filter val="https://www.gomlab.com"/>
+        <filter val="https://www.gomlab.com/gomcam-screen-recording/"/>
+        <filter val="https://www.gomlab.com/gormmixpro-video-editing"/>
+        <filter val="https://www.gomlab.com/overview/license"/>
+        <filter val="https://www.gonitro.com/pro/try"/>
+        <filter val="https://www.google.com/chrome"/>
+        <filter val="https://www.google.com/drive/download/"/>
+        <filter val="https://www.grammarly.com/desktop"/>
+        <filter val="https://www.haihaisoft.com/hup.aspx"/>
+        <filter val="https://www.hira.or.kr/exe/KAServiceCS_Setup.exe"/>
+        <filter val="https://www.hira.or.kr/exe/KSignCASE_For_HTML5_Windows_v1.3.28.exe"/>
+        <filter val="https://www.hometax.go.kr"/>
+        <filter val="https://www.ibk.co.kr"/>
+        <filter val="https://www.image-line.com/fl-studio-download/"/>
+        <filter val="https://www.iptime.co.kr/iptime/?page-id=126&amp;uid=16240&amp;mod=document"/>
+        <filter val="https://www.java.com/ko/download"/>
+        <filter val="https://www.jetbrains.com/ko-kr/idea/"/>
+        <filter val="https://www.kaspersky.com/downloads/antivirus-free-trial"/>
+        <filter val="https://www.kbsec.com/go.able"/>
+        <filter val="https://www.kiwoom.com"/>
+        <filter val="https://www.kmplayer.com"/>
+        <filter val="https://www.kmplayer.com/home"/>
+        <filter val="https://www.knote.kr/viewManualInstall.do"/>
+        <filter val="https://www.leagueoflegends.com"/>
+        <filter val="https://www.logitechg.com/ko-kr/innovation/g-hub.html"/>
+        <filter val="https://www.malwarebytes.com/"/>
+        <filter val="https://www.mcafee.com"/>
+        <filter val="https://www.mcafee.com/en-us/safe-browser/mcafee-webadvisor.html"/>
+        <filter val="https://www.melon.comm/index.htm"/>
+        <filter val="https://www.memuplay.com"/>
+        <filter val="https://www.microsoft.com/"/>
+        <filter val="https://www.microsoft.com/en-us/p/cooking-fever/9nblggh1cq7l"/>
+        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/microsoft-whiteboard/digital-whiteboard-app"/>
+        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/onedrive/download"/>
+        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/outlook/outlook-for-business"/>
+        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/publisher"/>
+        <filter val="https://www.millie.co.kr/v3/brand/update"/>
+        <filter val="https://www.movavi.com/kr/video-aditor-plus/"/>
+        <filter val="https://www.mucommander.com/"/>
+        <filter val="https://www.notion.so/ko-kr/desktop"/>
+        <filter val="https://www.onstove.com/download"/>
+        <filter val="https://www.opautoclicker.com"/>
+        <filter val="https://www.openoffice.org/ko/download/index.html"/>
+        <filter val="https://www.opera.com"/>
+        <filter val="https://www.overwolf.com"/>
+        <filter val="https://www.pdfforge.org/pdfarchitect"/>
+        <filter val="https://www.pdfforge.org/pdfcreator/download"/>
+        <filter val="https://www.photoscape.org/"/>
+        <filter val="https://www.pokerstars.com"/>
+        <filter val="https://www.polarisoffice.com/en/download"/>
+        <filter val="https://www.putty.org"/>
+        <filter val="https://www.python.org"/>
+        <filter val="https://www.radmin-vpn.com"/>
+        <filter val="https://www.raonk.com/page/experience/editor.aspx"/>
+        <filter val="https://www.raonsecure.com/ko/support/inquiry/keysharpbiz"/>
+        <filter val="https://www.razer.com/synapse-3"/>
+        <filter val="https://www.riotgames.com"/>
+        <filter val="https://www.roblox.com/download"/>
+        <filter val="https://www.rocketleague.com"/>
+        <filter val="https://www.rockstargames.com"/>
+        <filter val="https://www.rstudio.com/products/rstudio/download/"/>
+        <filter val="https://www.samsungfire.com/util/P_U04_00_00_001.html"/>
+        <filter val="https://www.shinhan.com"/>
+        <filter val="https://www.shinhansec.com/siw/customer-center/security/731707/contents.do"/>
+        <filter val="https://www.smemo.co.kr"/>
+        <filter val="https://www.softmaker.com/en/softmaker-office-textmaker"/>
+        <filter val="https://www.stremio.com"/>
+        <filter val="https://www.sublimetext.com"/>
+        <filter val="https://www.teamviewer.com"/>
+        <filter val="https://www.telegram.dog/desktop"/>
+        <filter val="https://www.thunderbird.net/en-US/"/>
+        <filter val="https://www.tobesoft.com/product/Xplatform.do"/>
+        <filter val="https://www.tradesign.net/certificate/nxtssetup"/>
+        <filter val="https://www.trendmicro.com/en_us/forHome/products/free-tools.html"/>
+        <filter val="https://www.turbovaccine.com/download2.asp"/>
+        <filter val="https://www.ubikey.co.kr/guide/subscribe.asp"/>
+        <filter val="https://www.ultraedit.com"/>
+        <filter val="https://www.unisign.co.kr/pps/install/index.html"/>
+        <filter val="https://www.unrealengine.com/en-US/download"/>
+        <filter val="https://www.utorrent.com"/>
+        <filter val="https://www.vagascreativesofftware.com"/>
+        <filter val="https://www.videolan.org/vlc/"/>
+        <filter val="https://www.virtualbox.org/wiki/Downloads"/>
+        <filter val="https://www.viruschaser.com/download/download"/>
+        <filter val="https://www.voidtools.com/ko-kr/"/>
+        <filter val="https://www.vpn.net"/>
+        <filter val="https://www.warframe.com"/>
+        <filter val="https://www.webex.com/ko/downloads.html"/>
+        <filter val="https://www.webroot.com/us/en/home/products/trials/av"/>
+        <filter val="https://www.win-rar.com"/>
+        <filter val="https://www.winzip.com/en/"/>
+        <filter val="https://www.youtube.com/watch?v=njX2bu-_Vw4"/>
+        <filter val="https://www.zalo.me/pc"/>
+        <filter val="https://www.zwsoft.co.kr/download/0-1-0_v02.asp?CODE_No=1"/>
+        <filter val="https://zoom.us/download"/>
+        <filter val="https:/apps.microsoft.com/store/apps"/>
+        <filter val="https:/worldoftanks.asia/ko/game/download"/>
+        <filter val="htts://pudg.game.daum.net/pubg/index.daum"/>
+        <filter val="ISO File Install"/>
+        <filter val="Microsoft Store"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00F11AB2-170B-41E6-AECC-4521DA0547FD}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{755E1ECF-2C9C-48E2-8BBD-64DCD6361330}"/>

--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D1D27-7081-487C-A268-381BF7EE8C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA86311-85A6-4E2E-B18B-6A25696AD3CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="602">
   <si>
     <t>Ahnlab Safe Transaction</t>
   </si>
@@ -1831,6 +1831,9 @@
   </si>
   <si>
     <t>Roblox</t>
+  </si>
+  <si>
+    <t>Login account</t>
   </si>
 </sst>
 </file>
@@ -1875,18 +1878,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1935,35 +1932,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2282,8 +2276,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2292,91 +2286,91 @@
     <col min="2" max="2" width="98.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2388,59 +2382,59 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2452,54 +2446,54 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2511,11 +2505,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2535,22 +2529,22 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>368</v>
       </c>
     </row>
@@ -2570,14 +2564,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -2589,25 +2583,25 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2619,60 +2613,60 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2692,19 +2686,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="12" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2756,82 +2750,82 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
+    <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="14" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2843,25 +2837,25 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2873,11 +2867,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="12" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2889,51 +2883,51 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="13" t="s">
+    <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="13" t="s">
+    <row r="71" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="13" t="s">
+    <row r="73" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="14" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2945,11 +2939,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="14" t="s">
         <v>384</v>
       </c>
     </row>
@@ -2961,23 +2955,23 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="13" t="s">
+    <row r="79" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2985,15 +2979,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3001,23 +2995,26 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="12" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
+      <c r="C84" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3025,39 +3022,39 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="14" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="20" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3097,7 +3094,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -5430,8 +5427,9 @@
     <hyperlink ref="B43" r:id="rId34" xr:uid="{A75CC409-7B70-4805-9CB4-7D44267E4867}"/>
     <hyperlink ref="B85" r:id="rId35" xr:uid="{7A3BE609-B4D2-4A5C-8C89-DA32A0768494}"/>
     <hyperlink ref="B87" r:id="rId36" xr:uid="{2444D9BB-9D8D-483B-BFC5-B2D514DD84CD}"/>
+    <hyperlink ref="B90" r:id="rId37" xr:uid="{3AEC1788-C4D4-4C3B-A6DA-F17C3A49DCB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA86311-85A6-4E2E-B18B-6A25696AD3CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C2954-D05C-4E51-B8AA-C4145DD5A939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -2276,8 +2276,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3054,35 +3054,35 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="14" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="21" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3094,35 +3094,35 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="14" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="14" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="14" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3134,67 +3134,67 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="14" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="21" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="21" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="21" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="21" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3574,11 +3574,11 @@
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="13" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5428,8 +5428,25 @@
     <hyperlink ref="B85" r:id="rId35" xr:uid="{7A3BE609-B4D2-4A5C-8C89-DA32A0768494}"/>
     <hyperlink ref="B87" r:id="rId36" xr:uid="{2444D9BB-9D8D-483B-BFC5-B2D514DD84CD}"/>
     <hyperlink ref="B90" r:id="rId37" xr:uid="{3AEC1788-C4D4-4C3B-A6DA-F17C3A49DCB9}"/>
+    <hyperlink ref="B91" r:id="rId38" xr:uid="{DC1CE3EF-581E-4251-BE66-EE5807CA05A2}"/>
+    <hyperlink ref="B92" r:id="rId39" xr:uid="{59FEA737-8075-4614-90AF-439C85D0A652}"/>
+    <hyperlink ref="B93" r:id="rId40" xr:uid="{6A34A40F-2746-47A5-9251-F8EE3017687B}"/>
+    <hyperlink ref="B94" r:id="rId41" xr:uid="{2D1CE8A6-161B-475F-B205-C035E3070117}"/>
+    <hyperlink ref="B96" r:id="rId42" xr:uid="{389F7358-FD4D-4555-B32E-F04F563E3187}"/>
+    <hyperlink ref="B97" r:id="rId43" xr:uid="{DE65EC82-3558-4556-B8B1-DB55586E6879}"/>
+    <hyperlink ref="B98" r:id="rId44" xr:uid="{F6140077-AF2A-44A1-878D-3DDF6D39878A}"/>
+    <hyperlink ref="B99" r:id="rId45" xr:uid="{821DFB7E-6093-4BE6-8F5E-8CD152A92504}"/>
+    <hyperlink ref="B101" r:id="rId46" xr:uid="{9BF7E403-96BF-4DBF-B67F-25FD51A8BB7D}"/>
+    <hyperlink ref="B102" r:id="rId47" xr:uid="{D717B915-D513-4DD7-8998-5500C1EA59EA}"/>
+    <hyperlink ref="B103" r:id="rId48" xr:uid="{9BF9FF04-6B95-4E2C-9118-61AAE5518BDE}"/>
+    <hyperlink ref="B104" r:id="rId49" xr:uid="{C87E0390-E6EF-491E-B0F4-542BDD8FD55B}"/>
+    <hyperlink ref="B105" r:id="rId50" xr:uid="{69D25BCD-B9FB-4812-9C0C-5A900CEC0F58}"/>
+    <hyperlink ref="B106" r:id="rId51" xr:uid="{D585A1E0-5676-47A4-A918-ECE7A1C09817}"/>
+    <hyperlink ref="B107" r:id="rId52" location="pc" xr:uid="{00649972-690C-4E93-B400-58A32B1BBE1B}"/>
+    <hyperlink ref="B108" r:id="rId53" location="5KPlayer" xr:uid="{049DDE99-58CA-4F4F-A3BF-57DED3AF8A75}"/>
+    <hyperlink ref="B110" r:id="rId54" xr:uid="{77C8482F-40F7-49EC-9053-1208197E41AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C2954-D05C-4E51-B8AA-C4145DD5A939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E900BD2-304D-4581-B8AB-0A3AC502FA94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -1840,7 +1840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1873,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1932,7 +1940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1958,6 +1966,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2276,8 +2286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B153" activeCellId="1" sqref="A151 B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3206,51 +3216,51 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="14" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="14" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="14" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3262,11 +3272,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="14" t="s">
         <v>415</v>
       </c>
     </row>
@@ -3278,11 +3288,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="13" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3302,19 +3312,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="14" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -3326,11 +3336,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="21" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3342,11 +3352,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="12" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3358,35 +3368,35 @@
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="12" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="14" t="s">
         <v>424</v>
       </c>
     </row>
@@ -3394,15 +3404,15 @@
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="14" t="s">
         <v>426</v>
       </c>
     </row>
@@ -3414,83 +3424,83 @@
         <v>352</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="14" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="10" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="10" t="s">
         <v>436</v>
       </c>
     </row>
@@ -3502,27 +3512,27 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="21" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3530,7 +3540,7 @@
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>440</v>
       </c>
     </row>
@@ -3578,7 +3588,7 @@
       <c r="A156" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="14" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5445,8 +5455,37 @@
     <hyperlink ref="B107" r:id="rId52" location="pc" xr:uid="{00649972-690C-4E93-B400-58A32B1BBE1B}"/>
     <hyperlink ref="B108" r:id="rId53" location="5KPlayer" xr:uid="{049DDE99-58CA-4F4F-A3BF-57DED3AF8A75}"/>
     <hyperlink ref="B110" r:id="rId54" xr:uid="{77C8482F-40F7-49EC-9053-1208197E41AC}"/>
+    <hyperlink ref="B111" r:id="rId55" xr:uid="{3BAFE5E5-A96E-45B0-8D88-9379DC1D7713}"/>
+    <hyperlink ref="B112" r:id="rId56" xr:uid="{E1F3003D-823F-438C-9F37-C725336FA221}"/>
+    <hyperlink ref="B113" r:id="rId57" xr:uid="{D1CEBB00-A722-4461-AE12-85BDDEAFC161}"/>
+    <hyperlink ref="B114" r:id="rId58" xr:uid="{C1EBF752-4B6E-4CB0-9F4B-2DC3B9059333}"/>
+    <hyperlink ref="B115" r:id="rId59" xr:uid="{60D65B2E-1BCB-4F2B-89BD-F751F825F5E2}"/>
+    <hyperlink ref="B117" r:id="rId60" xr:uid="{7FD8F283-9CEF-4980-9B29-6AC17168907F}"/>
+    <hyperlink ref="B122" r:id="rId61" xr:uid="{9DAC520C-128F-4F96-81CD-25B0F92C1E33}"/>
+    <hyperlink ref="B123" r:id="rId62" xr:uid="{F7FACD93-2E7E-43DC-9AD1-D01C22025717}"/>
+    <hyperlink ref="B125" r:id="rId63" xr:uid="{783E4A32-21CD-4A61-AF0F-154DEC86C3B6}"/>
+    <hyperlink ref="B127" r:id="rId64" xr:uid="{C9FF357C-FC78-4883-B995-11E2F5B47DE7}"/>
+    <hyperlink ref="B129" r:id="rId65" xr:uid="{EBBF4A3F-ED13-4BCB-86A8-2FBB40ED970A}"/>
+    <hyperlink ref="B130" r:id="rId66" xr:uid="{09C6A758-AF81-4AFE-931B-4733C2494401}"/>
+    <hyperlink ref="B131" r:id="rId67" xr:uid="{75098BE8-485E-4264-94D1-410BBD6205C5}"/>
+    <hyperlink ref="B132" r:id="rId68" xr:uid="{E23DF625-3A48-4FF6-BD7D-85CBE9628D1A}"/>
+    <hyperlink ref="B133" r:id="rId69" xr:uid="{30DD313C-2E99-4185-A087-91B6F649E13A}"/>
+    <hyperlink ref="B134" r:id="rId70" xr:uid="{98F7DC3F-CC4D-4479-8FD0-325010849075}"/>
+    <hyperlink ref="B136" r:id="rId71" xr:uid="{0421126B-82E2-447B-BF81-C74D5BAA153F}"/>
+    <hyperlink ref="B137" r:id="rId72" xr:uid="{E1D3ECAB-B37D-4368-BD93-C399B29FD7C5}"/>
+    <hyperlink ref="B138" r:id="rId73" xr:uid="{D8B5C1F4-0561-42DE-A1CE-673B8B1579A6}"/>
+    <hyperlink ref="B139" r:id="rId74" xr:uid="{357D2A3C-19A4-4E89-ABB7-D5068995A5B4}"/>
+    <hyperlink ref="B140" r:id="rId75" xr:uid="{AE6B23D5-322B-4A40-B466-50D52F953E1E}"/>
+    <hyperlink ref="B141" r:id="rId76" xr:uid="{11B311FC-922F-42CB-8ECE-9427300AD4DD}"/>
+    <hyperlink ref="B142" r:id="rId77" xr:uid="{2C3E8494-2B99-463F-BD0D-FDAB0826211B}"/>
+    <hyperlink ref="B143" r:id="rId78" xr:uid="{3A95A47D-4C23-4325-926A-990539F88569}"/>
+    <hyperlink ref="B147" r:id="rId79" xr:uid="{7109F3C2-68EE-4821-B613-BF5D0B620770}"/>
+    <hyperlink ref="B148" r:id="rId80" xr:uid="{B2D6518B-1226-499C-A199-E4A7B40278BB}"/>
+    <hyperlink ref="B149" r:id="rId81" xr:uid="{5274364B-6098-4C98-BB7D-F2F3B53AA4D4}"/>
+    <hyperlink ref="B150" r:id="rId82" xr:uid="{38315A88-FE02-45EE-A2CA-D7BCC9C05287}"/>
+    <hyperlink ref="B156" r:id="rId83" xr:uid="{7D843AB3-42CC-46C3-8155-F7208C55869C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E900BD2-304D-4581-B8AB-0A3AC502FA94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0951D3F-F89D-45DD-AC18-D3E5C317FB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>Ahnlab V3 Lite</t>
   </si>
   <si>
-    <t>CCleaner</t>
-  </si>
-  <si>
     <t>Alyac</t>
   </si>
   <si>
@@ -1245,9 +1242,6 @@
     <t>https://www.avast.com</t>
   </si>
   <si>
-    <t>https://www,gobest.kr/goclean_app/index.htm</t>
-  </si>
-  <si>
     <t>https://www.turbovaccine.com/download2.asp</t>
   </si>
   <si>
@@ -1834,6 +1828,12 @@
   </si>
   <si>
     <t>Login account</t>
+  </si>
+  <si>
+    <t>https://www.gobest.kr/goclean_app/index.htm</t>
+  </si>
+  <si>
+    <t>Ccleaner</t>
   </si>
 </sst>
 </file>
@@ -2286,8 +2286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B153" activeCellId="1" sqref="A151 B153"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2357,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2365,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2381,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -2389,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2397,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2405,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2429,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
@@ -2437,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -2445,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -2453,7 +2453,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.45">
@@ -2461,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2469,7 +2469,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -2485,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -2493,10 +2493,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2504,7 +2504,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -2512,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -2528,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -2536,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -2544,10 +2544,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2555,7 +2555,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -2563,7 +2563,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -2571,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2579,10 +2579,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2590,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2598,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>21</v>
@@ -2609,7 +2609,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>21</v>
@@ -2620,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2628,10 +2628,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2639,10 +2639,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2650,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
@@ -2658,7 +2658,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2666,7 +2666,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2674,7 +2674,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>21</v>
@@ -2685,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -2693,7 +2693,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2701,7 +2701,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2709,7 +2709,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -2717,7 +2717,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -2725,7 +2725,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -2733,7 +2733,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -2741,7 +2741,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -2749,7 +2749,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -2757,7 +2757,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2765,7 +2765,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2773,7 +2773,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2781,10 +2781,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2792,10 +2792,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2803,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2814,10 +2814,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2825,10 +2825,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2836,7 +2836,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -2844,7 +2844,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2852,7 +2852,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>21</v>
@@ -2863,7 +2863,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>21</v>
@@ -2874,7 +2874,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2882,7 +2882,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -2890,7 +2890,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2898,7 +2898,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2906,7 +2906,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2914,7 +2914,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2922,7 +2922,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
@@ -2930,7 +2930,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2938,7 +2938,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -2946,7 +2946,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2954,7 +2954,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -2962,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2970,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2978,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -2986,7 +2986,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -2994,7 +2994,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -3002,7 +3002,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -3010,10 +3010,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3021,7 +3021,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -3029,7 +3029,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3037,7 +3037,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3045,7 +3045,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -3053,7 +3053,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3061,7 +3061,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -3069,7 +3069,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3077,7 +3077,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3085,7 +3085,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -3093,7 +3093,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -3101,7 +3101,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3109,7 +3109,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3117,7 +3117,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3125,7 +3125,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3133,7 +3133,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -3141,7 +3141,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -3149,1543 +3149,1543 @@
         <v>99</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B104" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="20" t="s">
+    <row r="105" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B105" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="21" t="s">
+    <row r="107" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="21" t="s">
+    <row r="108" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>419</v>
+      <c r="B125" s="14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>439</v>
+      <c r="B149" s="14" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>444</v>
+      <c r="B155" s="14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -4693,455 +4693,455 @@
         <v>98</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5484,8 +5484,10 @@
     <hyperlink ref="B149" r:id="rId81" xr:uid="{5274364B-6098-4C98-BB7D-F2F3B53AA4D4}"/>
     <hyperlink ref="B150" r:id="rId82" xr:uid="{38315A88-FE02-45EE-A2CA-D7BCC9C05287}"/>
     <hyperlink ref="B156" r:id="rId83" xr:uid="{7D843AB3-42CC-46C3-8155-F7208C55869C}"/>
+    <hyperlink ref="B154" r:id="rId84" xr:uid="{60E6A0A9-80CA-4C01-A2DF-ACB3F5BE3362}"/>
+    <hyperlink ref="B155" r:id="rId85" xr:uid="{6C4D26EB-629C-4653-AE04-FE9F40A6C554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0951D3F-F89D-45DD-AC18-D3E5C317FB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5966ED-FC2B-401E-AF4C-1AA153D3CD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$350</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="608">
   <si>
     <t>Ahnlab Safe Transaction</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>virtualbox headless frontend</t>
   </si>
   <si>
-    <t>Windows Alarms</t>
-  </si>
-  <si>
     <t>Windows Calculator</t>
   </si>
   <si>
@@ -1834,6 +1831,27 @@
   </si>
   <si>
     <t>Ccleaner</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Preload</t>
+  </si>
+  <si>
+    <t>Windows Clock</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>duplicate element</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1908,6 +1926,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +1970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1968,6 +1998,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2284,2871 +2318,3082 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10"/>
+      <c r="C48" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10"/>
+      <c r="C58" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="27"/>
+      <c r="C69" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10"/>
+      <c r="C70" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10"/>
+      <c r="C84" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13"/>
+      <c r="C87" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="13"/>
+      <c r="C90" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="10"/>
+      <c r="C91" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="13"/>
+      <c r="C92" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="B94" s="20"/>
+      <c r="C94" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="13"/>
+      <c r="C97" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13"/>
+      <c r="C101" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="13"/>
+      <c r="C103" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="13"/>
+      <c r="C104" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="13"/>
+      <c r="C105" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="13"/>
+      <c r="C106" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="13"/>
+      <c r="C107" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="27"/>
+      <c r="C109" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="13"/>
+      <c r="C110" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="13"/>
+      <c r="C111" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="13"/>
+      <c r="C112" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="13"/>
+      <c r="C113" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="13"/>
+      <c r="C114" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="B115" s="13"/>
+      <c r="C115" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+      <c r="B117" s="13"/>
+      <c r="C117" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B118" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="28" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="B120" s="27"/>
+      <c r="C120" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B121" s="27"/>
+      <c r="C121" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="13"/>
+      <c r="C122" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+      <c r="B123" s="10"/>
+      <c r="C123" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+      <c r="B125" s="13"/>
+      <c r="C125" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="27"/>
+      <c r="C126" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+      <c r="B127" s="10"/>
+      <c r="C127" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="27"/>
+      <c r="C128" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="26" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B129" s="25"/>
+      <c r="C129" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B130" s="10"/>
+      <c r="C130" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="13"/>
+      <c r="C131" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B132" s="13"/>
+      <c r="C132" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C133" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+      <c r="B134" s="13"/>
+      <c r="C134" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="13"/>
+      <c r="C136" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="13"/>
+      <c r="C137" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B138" s="13"/>
+      <c r="C138" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B139" s="13"/>
+      <c r="C139" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B140" s="13"/>
+      <c r="C140" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B141" s="13"/>
+      <c r="C141" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B142" s="10"/>
+      <c r="C142" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B143" s="10"/>
+      <c r="C143" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B144" s="10"/>
+      <c r="C144" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+      <c r="B145" s="10"/>
+      <c r="C145" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B146" s="27"/>
+      <c r="C146" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B147" s="13"/>
+      <c r="C147" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B148" s="10"/>
+      <c r="C148" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B149" s="13"/>
+      <c r="C149" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C150" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B153" s="27"/>
+      <c r="C153" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C154" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="13"/>
+      <c r="C155" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B156" s="13"/>
+      <c r="C156" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C177" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
+      <c r="B179" s="27"/>
+      <c r="C179" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B180" s="27"/>
+      <c r="C180" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B182" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C183" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C184" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C185" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C186" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C187" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C188" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C189" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C190" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C191" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C192" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C193" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C194" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C195" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C196" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C197" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C198" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C199" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C200" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
+      <c r="C201" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B202" s="27"/>
+      <c r="C202" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C203" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C204" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C205" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C206" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C207" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A225" s="1" t="s">
+      <c r="C224" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A226" s="1" t="s">
+      <c r="B225" s="27"/>
+      <c r="C225" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B226" s="27"/>
+      <c r="C226" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A228" s="1" t="s">
+      <c r="C227" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B228" s="27"/>
+      <c r="C228" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C229" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C230" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C231" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A233" s="1" t="s">
+      <c r="C232" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B233" s="27"/>
+      <c r="C233" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C234" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C235" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A237" s="1" t="s">
+      <c r="C236" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A238" s="1" t="s">
+      <c r="B237" s="27"/>
+      <c r="C237" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B238" s="27"/>
+      <c r="C238" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C239" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C240" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C241" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A243" s="1" t="s">
+      <c r="C242" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B243" s="27"/>
+      <c r="C243" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C244" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C245" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C246" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A248" s="1" t="s">
+      <c r="C247" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A249" s="1" t="s">
+      <c r="B248" s="27"/>
+      <c r="C248" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B249" s="27"/>
+      <c r="C249" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C250" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C251" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C252" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C253" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C254" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C255" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C256" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C257" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C258" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C259" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C260" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C261" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C262" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C263" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C264" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C265" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C266" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A268" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A269" s="1" t="s">
+      <c r="B268" s="27"/>
+      <c r="C268" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A270" s="1" t="s">
+      <c r="B269" s="27"/>
+      <c r="C269" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B270" s="27"/>
+      <c r="C270" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C271" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A273" s="1" t="s">
+      <c r="C272" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A274" s="1" t="s">
+      <c r="B273" s="27"/>
+      <c r="C273" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A274" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B274" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A276" s="1" t="s">
+      <c r="C275" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B276" s="27"/>
+      <c r="C276" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C277" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A279" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A280" s="1" t="s">
+      <c r="B279" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A280" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B280" s="27"/>
+      <c r="C280" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C281" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A283" s="1" t="s">
+      <c r="C282" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A283" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B283" s="27"/>
+      <c r="C283" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C284" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C285" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A287" s="1" t="s">
+      <c r="C286" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A288" s="1" t="s">
+      <c r="B287" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A288" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B288" s="27"/>
+      <c r="C288" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C289" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C290" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A292" s="1" t="s">
+      <c r="C291" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A292" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B292" s="27"/>
+      <c r="C292" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A294" s="1" t="s">
+      <c r="C293" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A294" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B294" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C295" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C296" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A298" s="1" t="s">
+      <c r="C297" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A298" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B298" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C298" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C299" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C300" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A302" s="1" t="s">
+      <c r="C301" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A302" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B302" s="27"/>
+      <c r="C302" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A304" s="1" t="s">
+      <c r="C303" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A304" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A305" s="1" t="s">
+      <c r="B304" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A305" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B305" s="27"/>
+      <c r="C305" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C306" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A308" s="1" t="s">
+      <c r="C307" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A308" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B308" s="27"/>
+      <c r="C308" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A310" s="1" t="s">
+      <c r="C309" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A310" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B310" s="27"/>
+      <c r="C310" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C311" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C312" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C313" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C314" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C315" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C316" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C317" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C318" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A320" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A320" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B320" s="27"/>
+      <c r="C320" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C321" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A323" s="1" t="s">
+      <c r="C322" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B323" s="27"/>
+      <c r="C323" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C324" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C325" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C326" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C327" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C328" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C329" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C330" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C331" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C332" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A334" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A334" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B334" s="27"/>
+      <c r="C334" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C335" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C336" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A338" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="B338" s="27"/>
+      <c r="C338" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A339" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B339" s="27"/>
+      <c r="C339" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A340" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B340" s="27"/>
+      <c r="C340" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A338" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A339" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A340" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A341" s="1" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A342" s="1" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A343" s="1" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A344" s="1" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A345" s="1" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A346" s="1" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A347" s="1" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C348" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
+  <autoFilter ref="C1:C350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Epic Games"/>
         <filter val="htps://www.jetbrains.com/pycharm"/>
         <filter val="http://comcigan.co.kr/xe/jdata/19463"/>
         <filter val="http://www.ezpdf.co.kr/main/downPage/downPage.jsp"/>
@@ -5238,7 +5483,6 @@
         <filter val="https://worldofwarships.asia/en/content/game/"/>
         <filter val="https://ww.adobe.com/kr/products/illustrator.html"/>
         <filter val="https://www,altools.co.kr/download/alpdf.aspx"/>
-        <filter val="https://www,gobest.kr/goclean_app/index.htm"/>
         <filter val="https://www,google.com/earth/"/>
         <filter val="https://www,whatsapp.com/download"/>
         <filter val="https://www.5kplayer.com/#5KPlayer"/>
@@ -5297,6 +5541,7 @@
         <filter val="https://www.fortinet.com/support/product-downloads"/>
         <filter val="https://www.foxit.com/pdf-reader/"/>
         <filter val="https://www.gbuspb.kr"/>
+        <filter val="https://www.gobest.kr/goclean_app/index.htm"/>
         <filter val="https://www.gomlab.com"/>
         <filter val="https://www.gomlab.com/gomcam-screen-recording/"/>
         <filter val="https://www.gomlab.com/gormmixpro-video-editing"/>
@@ -5395,99 +5640,99 @@
         <filter val="https:/apps.microsoft.com/store/apps"/>
         <filter val="https:/worldoftanks.asia/ko/game/download"/>
         <filter val="htts://pudg.game.daum.net/pubg/index.daum"/>
-        <filter val="ISO File Install"/>
         <filter val="Microsoft Store"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00F11AB2-170B-41E6-AECC-4521DA0547FD}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{755E1ECF-2C9C-48E2-8BBD-64DCD6361330}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{84AF648F-F12F-43E2-A20B-16C2A3045F53}"/>
-    <hyperlink ref="B1" r:id="rId4" xr:uid="{3598786E-B4AD-4C5D-8F03-F9B1F779E690}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{84FD7FFA-2FF2-4057-92A2-DFA9E70F03FC}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{D76BEC51-78A9-4F62-8215-F67F02489ABD}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{D7503D7A-DBC7-4B74-8ACF-B872A48EA820}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{6A20877B-495D-43C4-B2BF-80C8C82C8CE8}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{C91B0426-A6BA-4949-98EA-8189E25024C1}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{C2491779-5608-477F-A616-41776BDD1ED9}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{77CD9553-EAF0-4887-B78E-4ED384CDA876}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{8CD82853-536E-4564-AC13-1663EC190C14}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{F4ED3638-2A04-4776-9581-04657A394421}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{8CD1A92A-624B-45AF-BAD4-C0A03ED40CA7}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{95B33B82-309F-4D5F-A2C7-4934328A5AD5}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{F5C7DA5D-E5F9-42A2-94A2-26FD5935BEF7}"/>
-    <hyperlink ref="B24" r:id="rId17" xr:uid="{104A47CD-5496-46D1-A8FC-0C96EBC1E4E0}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{DF2B07C5-2B88-4036-852C-994447294831}"/>
-    <hyperlink ref="B26" r:id="rId19" xr:uid="{6A69E0E2-ECE0-475B-ABA7-20ED1B33DE38}"/>
-    <hyperlink ref="B32" r:id="rId20" xr:uid="{8847E124-D34B-4F62-9135-3E4F7A1473F2}"/>
-    <hyperlink ref="B35" r:id="rId21" xr:uid="{B535C581-11D6-453D-8E19-D939E4F4AD7D}"/>
-    <hyperlink ref="B42" r:id="rId22" xr:uid="{8C911C0C-1685-4F5A-8ED5-5D1966CE1E68}"/>
-    <hyperlink ref="B48" r:id="rId23" xr:uid="{466463EC-EFC4-4B15-BD5A-8FB80B58050E}"/>
-    <hyperlink ref="B49" r:id="rId24" xr:uid="{0E292F0D-782D-4706-A420-D1911DA6C36E}"/>
-    <hyperlink ref="B57" r:id="rId25" xr:uid="{5541218A-C8D7-44BE-B880-B3E2DF132722}"/>
-    <hyperlink ref="B58" r:id="rId26" xr:uid="{E1664686-4507-4650-A87B-1C7DC1A31F2F}"/>
-    <hyperlink ref="B63" r:id="rId27" xr:uid="{CAE2EEC8-A0DF-4A01-B226-A6B7D94AB64D}"/>
-    <hyperlink ref="B68" r:id="rId28" xr:uid="{D632B6B5-B183-4591-A3EF-4364A12C16C7}"/>
-    <hyperlink ref="B70" r:id="rId29" xr:uid="{12AD6644-DB7E-486D-8E09-422D0CB2FEF3}"/>
-    <hyperlink ref="B75" r:id="rId30" xr:uid="{57C2E0B7-23CE-41A8-B676-F32745086F6D}"/>
-    <hyperlink ref="B77" r:id="rId31" xr:uid="{E89A33BE-09A6-4551-A291-2CD0F2613E08}"/>
-    <hyperlink ref="B82" r:id="rId32" xr:uid="{FCB10E0C-582F-4470-AF02-D573DDB86DFE}"/>
-    <hyperlink ref="B84" r:id="rId33" xr:uid="{59968593-2968-4244-BCC9-B0C626DC7D32}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{A75CC409-7B70-4805-9CB4-7D44267E4867}"/>
-    <hyperlink ref="B85" r:id="rId35" xr:uid="{7A3BE609-B4D2-4A5C-8C89-DA32A0768494}"/>
-    <hyperlink ref="B87" r:id="rId36" xr:uid="{2444D9BB-9D8D-483B-BFC5-B2D514DD84CD}"/>
-    <hyperlink ref="B90" r:id="rId37" xr:uid="{3AEC1788-C4D4-4C3B-A6DA-F17C3A49DCB9}"/>
-    <hyperlink ref="B91" r:id="rId38" xr:uid="{DC1CE3EF-581E-4251-BE66-EE5807CA05A2}"/>
-    <hyperlink ref="B92" r:id="rId39" xr:uid="{59FEA737-8075-4614-90AF-439C85D0A652}"/>
-    <hyperlink ref="B93" r:id="rId40" xr:uid="{6A34A40F-2746-47A5-9251-F8EE3017687B}"/>
-    <hyperlink ref="B94" r:id="rId41" xr:uid="{2D1CE8A6-161B-475F-B205-C035E3070117}"/>
-    <hyperlink ref="B96" r:id="rId42" xr:uid="{389F7358-FD4D-4555-B32E-F04F563E3187}"/>
-    <hyperlink ref="B97" r:id="rId43" xr:uid="{DE65EC82-3558-4556-B8B1-DB55586E6879}"/>
-    <hyperlink ref="B98" r:id="rId44" xr:uid="{F6140077-AF2A-44A1-878D-3DDF6D39878A}"/>
-    <hyperlink ref="B99" r:id="rId45" xr:uid="{821DFB7E-6093-4BE6-8F5E-8CD152A92504}"/>
-    <hyperlink ref="B101" r:id="rId46" xr:uid="{9BF7E403-96BF-4DBF-B67F-25FD51A8BB7D}"/>
-    <hyperlink ref="B102" r:id="rId47" xr:uid="{D717B915-D513-4DD7-8998-5500C1EA59EA}"/>
-    <hyperlink ref="B103" r:id="rId48" xr:uid="{9BF9FF04-6B95-4E2C-9118-61AAE5518BDE}"/>
-    <hyperlink ref="B104" r:id="rId49" xr:uid="{C87E0390-E6EF-491E-B0F4-542BDD8FD55B}"/>
-    <hyperlink ref="B105" r:id="rId50" xr:uid="{69D25BCD-B9FB-4812-9C0C-5A900CEC0F58}"/>
-    <hyperlink ref="B106" r:id="rId51" xr:uid="{D585A1E0-5676-47A4-A918-ECE7A1C09817}"/>
-    <hyperlink ref="B107" r:id="rId52" location="pc" xr:uid="{00649972-690C-4E93-B400-58A32B1BBE1B}"/>
-    <hyperlink ref="B108" r:id="rId53" location="5KPlayer" xr:uid="{049DDE99-58CA-4F4F-A3BF-57DED3AF8A75}"/>
-    <hyperlink ref="B110" r:id="rId54" xr:uid="{77C8482F-40F7-49EC-9053-1208197E41AC}"/>
-    <hyperlink ref="B111" r:id="rId55" xr:uid="{3BAFE5E5-A96E-45B0-8D88-9379DC1D7713}"/>
-    <hyperlink ref="B112" r:id="rId56" xr:uid="{E1F3003D-823F-438C-9F37-C725336FA221}"/>
-    <hyperlink ref="B113" r:id="rId57" xr:uid="{D1CEBB00-A722-4461-AE12-85BDDEAFC161}"/>
-    <hyperlink ref="B114" r:id="rId58" xr:uid="{C1EBF752-4B6E-4CB0-9F4B-2DC3B9059333}"/>
-    <hyperlink ref="B115" r:id="rId59" xr:uid="{60D65B2E-1BCB-4F2B-89BD-F751F825F5E2}"/>
-    <hyperlink ref="B117" r:id="rId60" xr:uid="{7FD8F283-9CEF-4980-9B29-6AC17168907F}"/>
-    <hyperlink ref="B122" r:id="rId61" xr:uid="{9DAC520C-128F-4F96-81CD-25B0F92C1E33}"/>
-    <hyperlink ref="B123" r:id="rId62" xr:uid="{F7FACD93-2E7E-43DC-9AD1-D01C22025717}"/>
-    <hyperlink ref="B125" r:id="rId63" xr:uid="{783E4A32-21CD-4A61-AF0F-154DEC86C3B6}"/>
-    <hyperlink ref="B127" r:id="rId64" xr:uid="{C9FF357C-FC78-4883-B995-11E2F5B47DE7}"/>
-    <hyperlink ref="B129" r:id="rId65" xr:uid="{EBBF4A3F-ED13-4BCB-86A8-2FBB40ED970A}"/>
-    <hyperlink ref="B130" r:id="rId66" xr:uid="{09C6A758-AF81-4AFE-931B-4733C2494401}"/>
-    <hyperlink ref="B131" r:id="rId67" xr:uid="{75098BE8-485E-4264-94D1-410BBD6205C5}"/>
-    <hyperlink ref="B132" r:id="rId68" xr:uid="{E23DF625-3A48-4FF6-BD7D-85CBE9628D1A}"/>
-    <hyperlink ref="B133" r:id="rId69" xr:uid="{30DD313C-2E99-4185-A087-91B6F649E13A}"/>
-    <hyperlink ref="B134" r:id="rId70" xr:uid="{98F7DC3F-CC4D-4479-8FD0-325010849075}"/>
-    <hyperlink ref="B136" r:id="rId71" xr:uid="{0421126B-82E2-447B-BF81-C74D5BAA153F}"/>
-    <hyperlink ref="B137" r:id="rId72" xr:uid="{E1D3ECAB-B37D-4368-BD93-C399B29FD7C5}"/>
-    <hyperlink ref="B138" r:id="rId73" xr:uid="{D8B5C1F4-0561-42DE-A1CE-673B8B1579A6}"/>
-    <hyperlink ref="B139" r:id="rId74" xr:uid="{357D2A3C-19A4-4E89-ABB7-D5068995A5B4}"/>
-    <hyperlink ref="B140" r:id="rId75" xr:uid="{AE6B23D5-322B-4A40-B466-50D52F953E1E}"/>
-    <hyperlink ref="B141" r:id="rId76" xr:uid="{11B311FC-922F-42CB-8ECE-9427300AD4DD}"/>
-    <hyperlink ref="B142" r:id="rId77" xr:uid="{2C3E8494-2B99-463F-BD0D-FDAB0826211B}"/>
-    <hyperlink ref="B143" r:id="rId78" xr:uid="{3A95A47D-4C23-4325-926A-990539F88569}"/>
-    <hyperlink ref="B147" r:id="rId79" xr:uid="{7109F3C2-68EE-4821-B613-BF5D0B620770}"/>
-    <hyperlink ref="B148" r:id="rId80" xr:uid="{B2D6518B-1226-499C-A199-E4A7B40278BB}"/>
-    <hyperlink ref="B149" r:id="rId81" xr:uid="{5274364B-6098-4C98-BB7D-F2F3B53AA4D4}"/>
-    <hyperlink ref="B150" r:id="rId82" xr:uid="{38315A88-FE02-45EE-A2CA-D7BCC9C05287}"/>
-    <hyperlink ref="B156" r:id="rId83" xr:uid="{7D843AB3-42CC-46C3-8155-F7208C55869C}"/>
-    <hyperlink ref="B154" r:id="rId84" xr:uid="{60E6A0A9-80CA-4C01-A2DF-ACB3F5BE3362}"/>
-    <hyperlink ref="B155" r:id="rId85" xr:uid="{6C4D26EB-629C-4653-AE04-FE9F40A6C554}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00F11AB2-170B-41E6-AECC-4521DA0547FD}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{755E1ECF-2C9C-48E2-8BBD-64DCD6361330}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{84AF648F-F12F-43E2-A20B-16C2A3045F53}"/>
+    <hyperlink ref="C1" r:id="rId4" xr:uid="{3598786E-B4AD-4C5D-8F03-F9B1F779E690}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{84FD7FFA-2FF2-4057-92A2-DFA9E70F03FC}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{D76BEC51-78A9-4F62-8215-F67F02489ABD}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{D7503D7A-DBC7-4B74-8ACF-B872A48EA820}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{6A20877B-495D-43C4-B2BF-80C8C82C8CE8}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{C91B0426-A6BA-4949-98EA-8189E25024C1}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{C2491779-5608-477F-A616-41776BDD1ED9}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{77CD9553-EAF0-4887-B78E-4ED384CDA876}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{8CD82853-536E-4564-AC13-1663EC190C14}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{F4ED3638-2A04-4776-9581-04657A394421}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{8CD1A92A-624B-45AF-BAD4-C0A03ED40CA7}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{95B33B82-309F-4D5F-A2C7-4934328A5AD5}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{F5C7DA5D-E5F9-42A2-94A2-26FD5935BEF7}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{104A47CD-5496-46D1-A8FC-0C96EBC1E4E0}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{DF2B07C5-2B88-4036-852C-994447294831}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{6A69E0E2-ECE0-475B-ABA7-20ED1B33DE38}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{8847E124-D34B-4F62-9135-3E4F7A1473F2}"/>
+    <hyperlink ref="C35" r:id="rId21" xr:uid="{B535C581-11D6-453D-8E19-D939E4F4AD7D}"/>
+    <hyperlink ref="C42" r:id="rId22" xr:uid="{8C911C0C-1685-4F5A-8ED5-5D1966CE1E68}"/>
+    <hyperlink ref="C48" r:id="rId23" xr:uid="{466463EC-EFC4-4B15-BD5A-8FB80B58050E}"/>
+    <hyperlink ref="C49" r:id="rId24" xr:uid="{0E292F0D-782D-4706-A420-D1911DA6C36E}"/>
+    <hyperlink ref="C57" r:id="rId25" xr:uid="{5541218A-C8D7-44BE-B880-B3E2DF132722}"/>
+    <hyperlink ref="C58" r:id="rId26" xr:uid="{E1664686-4507-4650-A87B-1C7DC1A31F2F}"/>
+    <hyperlink ref="C63" r:id="rId27" xr:uid="{CAE2EEC8-A0DF-4A01-B226-A6B7D94AB64D}"/>
+    <hyperlink ref="C68" r:id="rId28" xr:uid="{D632B6B5-B183-4591-A3EF-4364A12C16C7}"/>
+    <hyperlink ref="C70" r:id="rId29" xr:uid="{12AD6644-DB7E-486D-8E09-422D0CB2FEF3}"/>
+    <hyperlink ref="C75" r:id="rId30" xr:uid="{57C2E0B7-23CE-41A8-B676-F32745086F6D}"/>
+    <hyperlink ref="C77" r:id="rId31" xr:uid="{E89A33BE-09A6-4551-A291-2CD0F2613E08}"/>
+    <hyperlink ref="C82" r:id="rId32" xr:uid="{FCB10E0C-582F-4470-AF02-D573DDB86DFE}"/>
+    <hyperlink ref="C84" r:id="rId33" xr:uid="{59968593-2968-4244-BCC9-B0C626DC7D32}"/>
+    <hyperlink ref="C43" r:id="rId34" xr:uid="{A75CC409-7B70-4805-9CB4-7D44267E4867}"/>
+    <hyperlink ref="C85" r:id="rId35" xr:uid="{7A3BE609-B4D2-4A5C-8C89-DA32A0768494}"/>
+    <hyperlink ref="C87" r:id="rId36" xr:uid="{2444D9BB-9D8D-483B-BFC5-B2D514DD84CD}"/>
+    <hyperlink ref="C90" r:id="rId37" xr:uid="{3AEC1788-C4D4-4C3B-A6DA-F17C3A49DCB9}"/>
+    <hyperlink ref="C91" r:id="rId38" xr:uid="{DC1CE3EF-581E-4251-BE66-EE5807CA05A2}"/>
+    <hyperlink ref="C92" r:id="rId39" xr:uid="{59FEA737-8075-4614-90AF-439C85D0A652}"/>
+    <hyperlink ref="C93" r:id="rId40" xr:uid="{6A34A40F-2746-47A5-9251-F8EE3017687B}"/>
+    <hyperlink ref="C94" r:id="rId41" xr:uid="{2D1CE8A6-161B-475F-B205-C035E3070117}"/>
+    <hyperlink ref="C96" r:id="rId42" xr:uid="{389F7358-FD4D-4555-B32E-F04F563E3187}"/>
+    <hyperlink ref="C97" r:id="rId43" xr:uid="{DE65EC82-3558-4556-B8B1-DB55586E6879}"/>
+    <hyperlink ref="C98" r:id="rId44" xr:uid="{F6140077-AF2A-44A1-878D-3DDF6D39878A}"/>
+    <hyperlink ref="C99" r:id="rId45" xr:uid="{821DFB7E-6093-4BE6-8F5E-8CD152A92504}"/>
+    <hyperlink ref="C101" r:id="rId46" xr:uid="{9BF7E403-96BF-4DBF-B67F-25FD51A8BB7D}"/>
+    <hyperlink ref="C102" r:id="rId47" xr:uid="{D717B915-D513-4DD7-8998-5500C1EA59EA}"/>
+    <hyperlink ref="C103" r:id="rId48" xr:uid="{9BF9FF04-6B95-4E2C-9118-61AAE5518BDE}"/>
+    <hyperlink ref="C104" r:id="rId49" xr:uid="{C87E0390-E6EF-491E-B0F4-542BDD8FD55B}"/>
+    <hyperlink ref="C105" r:id="rId50" xr:uid="{69D25BCD-B9FB-4812-9C0C-5A900CEC0F58}"/>
+    <hyperlink ref="C106" r:id="rId51" xr:uid="{D585A1E0-5676-47A4-A918-ECE7A1C09817}"/>
+    <hyperlink ref="C107" r:id="rId52" location="pc" xr:uid="{00649972-690C-4E93-B400-58A32B1BBE1B}"/>
+    <hyperlink ref="C108" r:id="rId53" location="5KPlayer" xr:uid="{049DDE99-58CA-4F4F-A3BF-57DED3AF8A75}"/>
+    <hyperlink ref="C110" r:id="rId54" xr:uid="{77C8482F-40F7-49EC-9053-1208197E41AC}"/>
+    <hyperlink ref="C111" r:id="rId55" xr:uid="{3BAFE5E5-A96E-45B0-8D88-9379DC1D7713}"/>
+    <hyperlink ref="C112" r:id="rId56" xr:uid="{E1F3003D-823F-438C-9F37-C725336FA221}"/>
+    <hyperlink ref="C113" r:id="rId57" xr:uid="{D1CEBB00-A722-4461-AE12-85BDDEAFC161}"/>
+    <hyperlink ref="C114" r:id="rId58" xr:uid="{C1EBF752-4B6E-4CB0-9F4B-2DC3B9059333}"/>
+    <hyperlink ref="C115" r:id="rId59" xr:uid="{60D65B2E-1BCB-4F2B-89BD-F751F825F5E2}"/>
+    <hyperlink ref="C117" r:id="rId60" xr:uid="{7FD8F283-9CEF-4980-9B29-6AC17168907F}"/>
+    <hyperlink ref="C122" r:id="rId61" xr:uid="{9DAC520C-128F-4F96-81CD-25B0F92C1E33}"/>
+    <hyperlink ref="C123" r:id="rId62" xr:uid="{F7FACD93-2E7E-43DC-9AD1-D01C22025717}"/>
+    <hyperlink ref="C125" r:id="rId63" xr:uid="{783E4A32-21CD-4A61-AF0F-154DEC86C3B6}"/>
+    <hyperlink ref="C127" r:id="rId64" xr:uid="{C9FF357C-FC78-4883-B995-11E2F5B47DE7}"/>
+    <hyperlink ref="C129" r:id="rId65" xr:uid="{EBBF4A3F-ED13-4BCB-86A8-2FBB40ED970A}"/>
+    <hyperlink ref="C130" r:id="rId66" xr:uid="{09C6A758-AF81-4AFE-931B-4733C2494401}"/>
+    <hyperlink ref="C131" r:id="rId67" xr:uid="{75098BE8-485E-4264-94D1-410BBD6205C5}"/>
+    <hyperlink ref="C132" r:id="rId68" xr:uid="{E23DF625-3A48-4FF6-BD7D-85CBE9628D1A}"/>
+    <hyperlink ref="C133" r:id="rId69" xr:uid="{30DD313C-2E99-4185-A087-91B6F649E13A}"/>
+    <hyperlink ref="C134" r:id="rId70" xr:uid="{98F7DC3F-CC4D-4479-8FD0-325010849075}"/>
+    <hyperlink ref="C136" r:id="rId71" xr:uid="{0421126B-82E2-447B-BF81-C74D5BAA153F}"/>
+    <hyperlink ref="C137" r:id="rId72" xr:uid="{E1D3ECAB-B37D-4368-BD93-C399B29FD7C5}"/>
+    <hyperlink ref="C138" r:id="rId73" xr:uid="{D8B5C1F4-0561-42DE-A1CE-673B8B1579A6}"/>
+    <hyperlink ref="C139" r:id="rId74" xr:uid="{357D2A3C-19A4-4E89-ABB7-D5068995A5B4}"/>
+    <hyperlink ref="C140" r:id="rId75" xr:uid="{AE6B23D5-322B-4A40-B466-50D52F953E1E}"/>
+    <hyperlink ref="C141" r:id="rId76" xr:uid="{11B311FC-922F-42CB-8ECE-9427300AD4DD}"/>
+    <hyperlink ref="C142" r:id="rId77" xr:uid="{2C3E8494-2B99-463F-BD0D-FDAB0826211B}"/>
+    <hyperlink ref="C143" r:id="rId78" xr:uid="{3A95A47D-4C23-4325-926A-990539F88569}"/>
+    <hyperlink ref="C147" r:id="rId79" xr:uid="{7109F3C2-68EE-4821-B613-BF5D0B620770}"/>
+    <hyperlink ref="C148" r:id="rId80" xr:uid="{B2D6518B-1226-499C-A199-E4A7B40278BB}"/>
+    <hyperlink ref="C149" r:id="rId81" xr:uid="{5274364B-6098-4C98-BB7D-F2F3B53AA4D4}"/>
+    <hyperlink ref="C150" r:id="rId82" xr:uid="{38315A88-FE02-45EE-A2CA-D7BCC9C05287}"/>
+    <hyperlink ref="C156" r:id="rId83" xr:uid="{7D843AB3-42CC-46C3-8155-F7208C55869C}"/>
+    <hyperlink ref="C154" r:id="rId84" xr:uid="{60E6A0A9-80CA-4C01-A2DF-ACB3F5BE3362}"/>
+    <hyperlink ref="C155" r:id="rId85" xr:uid="{6C4D26EB-629C-4653-AE04-FE9F40A6C554}"/>
+    <hyperlink ref="C264" r:id="rId86" xr:uid="{C3D74C9B-5C96-4ED9-BFC0-FD432628C1CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5966ED-FC2B-401E-AF4C-1AA153D3CD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676ABE6-A50D-4117-AF13-9745DB01FCA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
@@ -2320,8 +2320,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2331,12 +2331,12 @@
     <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>344</v>
       </c>
     </row>

--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Web_Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676ABE6-A50D-4117-AF13-9745DB01FCA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672DC8F-A0EF-4C09-9BDE-66A0C9A24A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2021,9 +2021,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2061,7 +2061,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2167,7 +2167,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2309,7 +2309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2320,18 +2320,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>26</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>35</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>38</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>45</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
         <v>46</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>49</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
         <v>50</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>51</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>52</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>53</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>67</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
         <v>68</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>69</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>70</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>72</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
         <v>75</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>77</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
         <v>79</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>80</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27" t="s">
         <v>81</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>83</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27" t="s">
         <v>84</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>85</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>86</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>87</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>88</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>90</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>91</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>92</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>93</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>94</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>95</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>96</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>97</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
         <v>98</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>99</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>600</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>100</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>101</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>102</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>103</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>104</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>105</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27" t="s">
         <v>106</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>107</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>108</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>109</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>110</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>111</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>112</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27" t="s">
         <v>113</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>114</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29" t="s">
         <v>115</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>116</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="28" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" s="28" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="27" t="s">
         <v>117</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27" t="s">
         <v>118</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>119</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>120</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
         <v>121</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>122</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="27" t="s">
         <v>123</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>124</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="27" t="s">
         <v>125</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
         <v>126</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>127</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>128</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>129</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>131</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="29" t="s">
         <v>132</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>133</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>134</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>135</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>136</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>137</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>138</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>139</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>140</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>141</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>142</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="27" t="s">
         <v>143</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>144</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>145</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
         <v>146</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="s">
         <v>148</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20" t="s">
         <v>149</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="27" t="s">
         <v>150</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>152</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>153</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27" t="s">
         <v>176</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27" t="s">
         <v>177</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="29" t="s">
         <v>179</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="s">
         <v>199</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="27" t="s">
         <v>222</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="27" t="s">
         <v>223</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="27" t="s">
         <v>225</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="27" t="s">
         <v>230</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="27" t="s">
         <v>234</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="27" t="s">
         <v>235</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="27" t="s">
         <v>240</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="27" t="s">
         <v>245</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="27" t="s">
         <v>246</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="27" t="s">
         <v>265</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="27" t="s">
         <v>266</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="27" t="s">
         <v>267</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="27" t="s">
         <v>270</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>271</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="27" t="s">
         <v>273</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>117</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="27" t="s">
         <v>276</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>277</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>278</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="27" t="s">
         <v>279</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>280</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>281</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>283</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="27" t="s">
         <v>284</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>285</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>286</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>287</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="27" t="s">
         <v>288</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>289</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>98</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>290</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>291</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>292</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="29" t="s">
         <v>293</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>294</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>295</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>296</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="27" t="s">
         <v>297</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>298</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="29" t="s">
         <v>299</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="27" t="s">
         <v>300</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>301</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>302</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="27" t="s">
         <v>303</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>304</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="27" t="s">
         <v>305</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>306</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>307</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>308</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>309</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>310</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>311</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>312</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>313</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>314</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="27" t="s">
         <v>315</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>316</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>317</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27" t="s">
         <v>318</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>319</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>320</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>321</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>322</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>323</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>324</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>325</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>326</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>327</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>328</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27" t="s">
         <v>329</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>330</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>331</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>332</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="27" t="s">
         <v>604</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="27" t="s">
         <v>333</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="27" t="s">
         <v>265</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>342</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>343</v>
       </c>

--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Web_Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672DC8F-A0EF-4C09-9BDE-66A0C9A24A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9029E016-AAA1-4AEC-9631-443268CA64CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="13178" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="605">
   <si>
     <t>Ahnlab Safe Transaction</t>
   </si>
@@ -1815,9 +1815,6 @@
     <t>STEAM</t>
   </si>
   <si>
-    <t>Xbox</t>
-  </si>
-  <si>
     <t>Epic luncher</t>
   </si>
   <si>
@@ -1836,22 +1833,16 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Preload</t>
-  </si>
-  <si>
     <t>Windows Clock</t>
   </si>
   <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>duplicate element</t>
+    <t>Riot games</t>
+  </si>
+  <si>
+    <t>time out</t>
   </si>
 </sst>
 </file>
@@ -1898,13 +1889,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1932,12 +1922,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,12 +1954,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1994,14 +1976,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2021,9 +2002,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2061,7 +2042,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2167,7 +2148,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2309,7 +2290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2320,1473 +2301,1481 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="27" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="D21" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="11" t="s">
+    </row>
+    <row r="36" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
+    <row r="41" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
+    <row r="46" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D38" s="11" t="s">
+    </row>
+    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10" t="s">
+    <row r="66" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D66" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
+    <row r="67" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D58" s="11" t="s">
+    <row r="72" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="11" t="s">
+    <row r="85" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="22" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="8"/>
+      <c r="C142" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" s="8"/>
+      <c r="C143" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="8"/>
+      <c r="C148" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="8"/>
+      <c r="C154" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D154" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="28" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="25"/>
-      <c r="C129" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" s="13"/>
-      <c r="C137" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="20"/>
-      <c r="C151" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
+    <row r="155" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="14" t="s">
+      <c r="B155" s="11"/>
+      <c r="C155" s="12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="14" t="s">
+      <c r="B156" s="11"/>
+      <c r="C156" s="12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -3794,7 +3783,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -3802,7 +3791,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -3810,7 +3799,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -3818,7 +3807,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -3826,7 +3815,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -3834,7 +3823,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -3842,7 +3831,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -3850,7 +3839,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -3858,7 +3847,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -3866,7 +3855,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
@@ -3874,7 +3863,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
@@ -3882,7 +3871,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
@@ -3890,7 +3879,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
@@ -3898,7 +3887,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -3914,7 +3903,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
@@ -3922,7 +3911,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
@@ -3930,7 +3919,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
@@ -3938,7 +3927,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -3946,7 +3935,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -3954,7 +3943,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -3962,25 +3951,25 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="27" t="s">
+    <row r="179" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="27" t="s">
+      <c r="B179" s="21"/>
+      <c r="C179" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="21"/>
+      <c r="C180" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -3988,18 +3977,16 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="29" t="s">
+    <row r="182" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="21"/>
+      <c r="C182" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -4007,7 +3994,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -4015,7 +4002,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -4023,7 +4010,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -4031,7 +4018,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -4039,7 +4026,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -4047,7 +4034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
@@ -4055,7 +4042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -4063,7 +4050,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
@@ -4071,7 +4058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -4079,7 +4066,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
@@ -4087,7 +4074,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
@@ -4095,7 +4082,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
@@ -4103,7 +4090,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
@@ -4111,7 +4098,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
@@ -4119,7 +4106,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
@@ -4127,7 +4114,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
@@ -4135,7 +4122,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
@@ -4143,7 +4130,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -4151,16 +4138,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="27" t="s">
+    <row r="202" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="21"/>
+      <c r="C202" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -4168,7 +4155,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
@@ -4176,7 +4163,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
@@ -4184,7 +4171,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
@@ -4192,7 +4179,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
@@ -4200,7 +4187,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
@@ -4208,7 +4195,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -4216,7 +4203,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -4224,7 +4211,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
@@ -4232,7 +4219,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
@@ -4240,7 +4227,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
@@ -4248,7 +4235,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
@@ -4256,7 +4243,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
@@ -4264,7 +4251,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
@@ -4272,7 +4259,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
@@ -4280,7 +4267,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
@@ -4288,7 +4275,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
@@ -4296,7 +4283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -4304,7 +4291,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
@@ -4312,7 +4299,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -4320,7 +4307,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -4328,7 +4315,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -4336,25 +4323,25 @@
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="27" t="s">
+    <row r="225" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="27" t="s">
+      <c r="B225" s="21"/>
+      <c r="C225" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B226" s="27"/>
-      <c r="C226" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="21"/>
+      <c r="C226" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -4362,16 +4349,16 @@
         <v>505</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="27" t="s">
+    <row r="228" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="21"/>
+      <c r="C228" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -4379,7 +4366,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
@@ -4387,7 +4374,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
@@ -4395,7 +4382,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
@@ -4403,16 +4390,16 @@
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+    <row r="233" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="21"/>
+      <c r="C233" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
@@ -4420,7 +4407,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
@@ -4428,7 +4415,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
@@ -4436,25 +4423,25 @@
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="27" t="s">
+    <row r="237" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="B237" s="27"/>
-      <c r="C237" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="27" t="s">
+      <c r="B237" s="21"/>
+      <c r="C237" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="21"/>
+      <c r="C238" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
@@ -4462,7 +4449,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
@@ -4470,7 +4457,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
@@ -4478,7 +4465,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
@@ -4486,16 +4473,16 @@
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="27" t="s">
+    <row r="243" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="27"/>
-      <c r="C243" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="21"/>
+      <c r="C243" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
@@ -4503,7 +4490,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
@@ -4511,7 +4498,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
@@ -4519,7 +4506,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
@@ -4527,25 +4514,25 @@
         <v>520</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="27" t="s">
+    <row r="248" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B248" s="27"/>
-      <c r="C248" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="27" t="s">
+      <c r="B248" s="21"/>
+      <c r="C248" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B249" s="27"/>
-      <c r="C249" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="21"/>
+      <c r="C249" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
@@ -4553,7 +4540,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
@@ -4561,7 +4548,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
@@ -4569,7 +4556,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
@@ -4577,7 +4564,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
@@ -4585,7 +4572,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
@@ -4593,7 +4580,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
@@ -4601,7 +4588,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
@@ -4609,7 +4596,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
@@ -4617,7 +4604,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
@@ -4625,7 +4612,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
@@ -4633,7 +4620,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
@@ -4641,7 +4628,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
@@ -4649,7 +4636,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
@@ -4657,7 +4644,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
@@ -4665,7 +4652,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
@@ -4673,7 +4660,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
@@ -4681,7 +4668,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
@@ -4689,34 +4676,34 @@
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="27" t="s">
+    <row r="268" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="27"/>
-      <c r="C268" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="27" t="s">
+      <c r="B268" s="21"/>
+      <c r="C268" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B269" s="27"/>
-      <c r="C269" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="27" t="s">
+      <c r="B269" s="21"/>
+      <c r="C269" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="27"/>
-      <c r="C270" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="21"/>
+      <c r="C270" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
@@ -4724,7 +4711,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
@@ -4732,27 +4719,27 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="27" t="s">
+    <row r="273" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="27"/>
-      <c r="C273" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="10" t="s">
+      <c r="B273" s="21"/>
+      <c r="C273" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A274" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B274" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
@@ -4760,16 +4747,16 @@
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="27" t="s">
+    <row r="276" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B276" s="27"/>
-      <c r="C276" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="21"/>
+      <c r="C276" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
@@ -4777,7 +4764,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
@@ -4785,27 +4772,25 @@
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="10" t="s">
+    <row r="279" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B279" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="27" t="s">
+      <c r="B279" s="21"/>
+      <c r="C279" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A280" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="21"/>
+      <c r="C280" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>277</v>
       </c>
@@ -4813,7 +4798,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>278</v>
       </c>
@@ -4821,16 +4806,16 @@
         <v>544</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="27" t="s">
+    <row r="283" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A283" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="27"/>
-      <c r="C283" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="21"/>
+      <c r="C283" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>280</v>
       </c>
@@ -4838,7 +4823,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>281</v>
       </c>
@@ -4846,7 +4831,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
@@ -4854,27 +4839,25 @@
         <v>547</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="10" t="s">
+    <row r="287" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="27" t="s">
+      <c r="B287" s="21"/>
+      <c r="C287" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A288" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="27"/>
-      <c r="C288" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="21"/>
+      <c r="C288" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>285</v>
       </c>
@@ -4882,7 +4865,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>286</v>
       </c>
@@ -4890,7 +4873,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>287</v>
       </c>
@@ -4898,16 +4881,16 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="27" t="s">
+    <row r="292" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A292" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="27"/>
-      <c r="C292" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="21"/>
+      <c r="C292" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>289</v>
       </c>
@@ -4915,18 +4898,16 @@
         <v>551</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="10" t="s">
+    <row r="294" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A294" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="21"/>
+      <c r="C294" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>290</v>
       </c>
@@ -4934,7 +4915,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>291</v>
       </c>
@@ -4942,7 +4923,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>292</v>
       </c>
@@ -4950,18 +4931,16 @@
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="29" t="s">
+    <row r="298" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A298" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="C298" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="21"/>
+      <c r="C298" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>294</v>
       </c>
@@ -4969,7 +4948,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>295</v>
       </c>
@@ -4977,7 +4956,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>296</v>
       </c>
@@ -4985,16 +4964,16 @@
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="27" t="s">
+    <row r="302" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A302" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B302" s="27"/>
-      <c r="C302" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="21"/>
+      <c r="C302" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>298</v>
       </c>
@@ -5002,27 +4981,25 @@
         <v>558</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="29" t="s">
+    <row r="304" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A304" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B304" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="C304" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="27" t="s">
+      <c r="B304" s="21"/>
+      <c r="C304" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A305" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B305" s="27"/>
-      <c r="C305" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="21"/>
+      <c r="C305" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>301</v>
       </c>
@@ -5030,7 +5007,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>302</v>
       </c>
@@ -5038,16 +5015,16 @@
         <v>560</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="27" t="s">
+    <row r="308" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A308" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B308" s="27"/>
-      <c r="C308" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="21"/>
+      <c r="C308" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>304</v>
       </c>
@@ -5055,16 +5032,16 @@
         <v>561</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="27" t="s">
+    <row r="310" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A310" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B310" s="27"/>
-      <c r="C310" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="21"/>
+      <c r="C310" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>306</v>
       </c>
@@ -5072,7 +5049,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>307</v>
       </c>
@@ -5080,7 +5057,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>308</v>
       </c>
@@ -5088,7 +5065,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>309</v>
       </c>
@@ -5096,7 +5073,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>310</v>
       </c>
@@ -5104,7 +5081,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>311</v>
       </c>
@@ -5112,7 +5089,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>312</v>
       </c>
@@ -5120,7 +5097,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>313</v>
       </c>
@@ -5128,7 +5105,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>314</v>
       </c>
@@ -5136,16 +5113,16 @@
         <v>570</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="27" t="s">
+    <row r="320" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A320" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B320" s="27"/>
-      <c r="C320" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="21"/>
+      <c r="C320" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>316</v>
       </c>
@@ -5153,7 +5130,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>317</v>
       </c>
@@ -5161,16 +5138,16 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="27" t="s">
+    <row r="323" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B323" s="27"/>
-      <c r="C323" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="21"/>
+      <c r="C323" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>319</v>
       </c>
@@ -5178,7 +5155,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>320</v>
       </c>
@@ -5186,7 +5163,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>321</v>
       </c>
@@ -5194,7 +5171,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>322</v>
       </c>
@@ -5202,7 +5179,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>323</v>
       </c>
@@ -5210,7 +5187,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>324</v>
       </c>
@@ -5218,7 +5195,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>325</v>
       </c>
@@ -5226,7 +5203,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>326</v>
       </c>
@@ -5234,7 +5211,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>327</v>
       </c>
@@ -5242,7 +5219,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>328</v>
       </c>
@@ -5250,16 +5227,16 @@
         <v>582</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="27" t="s">
+    <row r="334" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A334" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="B334" s="27"/>
-      <c r="C334" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B334" s="21"/>
+      <c r="C334" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>330</v>
       </c>
@@ -5267,7 +5244,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>331</v>
       </c>
@@ -5275,7 +5252,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>332</v>
       </c>
@@ -5283,34 +5260,34 @@
         <v>585</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="B338" s="27"/>
-      <c r="C338" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="27" t="s">
+    <row r="338" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A338" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B338" s="21"/>
+      <c r="C338" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A339" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B339" s="27"/>
-      <c r="C339" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="27" t="s">
+      <c r="B339" s="21"/>
+      <c r="C339" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A340" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B340" s="27"/>
-      <c r="C340" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B340" s="21"/>
+      <c r="C340" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
@@ -5318,7 +5295,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
@@ -5326,7 +5303,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
@@ -5334,7 +5311,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
@@ -5342,7 +5319,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
@@ -5350,7 +5327,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
@@ -5358,7 +5335,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
@@ -5366,7 +5343,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
@@ -5374,7 +5351,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>342</v>
       </c>
@@ -5382,7 +5359,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>343</v>
       </c>
@@ -5731,8 +5708,9 @@
     <hyperlink ref="C154" r:id="rId84" xr:uid="{60E6A0A9-80CA-4C01-A2DF-ACB3F5BE3362}"/>
     <hyperlink ref="C155" r:id="rId85" xr:uid="{6C4D26EB-629C-4653-AE04-FE9F40A6C554}"/>
     <hyperlink ref="C264" r:id="rId86" xr:uid="{C3D74C9B-5C96-4ED9-BFC0-FD432628C1CE}"/>
+    <hyperlink ref="C89" r:id="rId87" xr:uid="{F6219BA3-1D74-480C-9ABA-317839925873}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Web_Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9029E016-AAA1-4AEC-9631-443268CA64CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22372B41-0878-45BB-9E51-AD20408D977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="13178" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$350</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="618">
   <si>
     <t>Ahnlab Safe Transaction</t>
   </si>
@@ -1842,7 +1842,46 @@
     <t>Riot games</t>
   </si>
   <si>
-    <t>time out</t>
+    <t>Run Exe time out</t>
+  </si>
+  <si>
+    <t>Luncher</t>
+  </si>
+  <si>
+    <t>rockstar lucher</t>
+  </si>
+  <si>
+    <t>Can't run exe</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>Data?</t>
+  </si>
+  <si>
+    <t>Install Fail</t>
+  </si>
+  <si>
+    <t>Can't find</t>
+  </si>
+  <si>
+    <t>Mobile only</t>
+  </si>
+  <si>
+    <t>Page not found</t>
+  </si>
+  <si>
+    <t>app can't run</t>
+  </si>
+  <si>
+    <t>connect printer</t>
+  </si>
+  <si>
+    <t>Can't run</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,6 +1961,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,15 +2029,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1983,6 +2054,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2002,9 +2086,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2042,7 +2126,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2148,7 +2232,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2290,7 +2374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2299,1483 +2383,1496 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+    </row>
+    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D37" s="9" t="s">
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="C65" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="C70" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
+      <c r="C71" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8" t="s">
+    </row>
+    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8" t="s">
+    <row r="74" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="21" t="s">
+    <row r="76" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="11" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="21" t="s">
+    <row r="78" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="8" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="8" t="s">
+      <c r="C79" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="21" t="s">
+      <c r="C80" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="11" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="21" t="s">
+    <row r="83" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="8" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D84" s="9" t="s">
+    </row>
+    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:3" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="21" t="s">
+    <row r="95" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="11" t="s">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="7"/>
+      <c r="C97" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="11" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12" t="s">
+      <c r="B102" s="7"/>
+      <c r="C102" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="11" t="s">
+    <row r="103" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
+      <c r="B104" s="7"/>
+      <c r="C104" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="11" t="s">
+    <row r="105" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="8" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="11" t="s">
+    <row r="106" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
+      <c r="B106" s="7"/>
+      <c r="C106" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
+      <c r="B107" s="7"/>
+      <c r="C107" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="21" t="s">
+    <row r="109" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="11" t="s">
+      <c r="B109" s="17"/>
+      <c r="C109" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="11" t="s">
+    <row r="111" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12" t="s">
+      <c r="B111" s="7"/>
+      <c r="C111" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12" t="s">
+      <c r="B112" s="7"/>
+      <c r="C112" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12" t="s">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="11" t="s">
+    <row r="115" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12" t="s">
+      <c r="B115" s="7"/>
+      <c r="C115" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="21" t="s">
+    <row r="116" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="11" t="s">
+      <c r="B116" s="17"/>
+      <c r="C116" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12" t="s">
+      <c r="B117" s="7"/>
+      <c r="C117" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="21" t="s">
+    <row r="118" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="11" t="s">
+      <c r="B118" s="17"/>
+      <c r="C118" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11" t="s">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="22" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="21" t="s">
+    <row r="120" spans="1:3" s="18" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="21" t="s">
+      <c r="B120" s="17"/>
+      <c r="C120" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="11" t="s">
+      <c r="B121" s="17"/>
+      <c r="C121" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
+      <c r="B122" s="7"/>
+      <c r="C122" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="10" t="s">
+      <c r="B123" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="21" t="s">
+    <row r="124" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="11" t="s">
+      <c r="B124" s="17"/>
+      <c r="C124" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12" t="s">
+      <c r="B125" s="7"/>
+      <c r="C125" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="21" t="s">
+    <row r="126" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="8" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="24"/>
+      <c r="C127" s="26" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="21" t="s">
+    <row r="128" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="23" t="s">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="24" t="s">
+      <c r="B129" s="19"/>
+      <c r="C129" s="20" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="10" t="s">
+      <c r="B130" s="24"/>
+      <c r="C130" s="26" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="11" t="s">
+    <row r="131" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12" t="s">
+      <c r="B131" s="7"/>
+      <c r="C131" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12" t="s">
+      <c r="B132" s="7"/>
+      <c r="C132" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="11" t="s">
+    <row r="133" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12" t="s">
+      <c r="B133" s="7"/>
+      <c r="C133" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12" t="s">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="21" t="s">
+    <row r="135" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="11" t="s">
+      <c r="B135" s="17"/>
+      <c r="C135" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12" t="s">
+      <c r="B136" s="7"/>
+      <c r="C136" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12" t="s">
+      <c r="B137" s="7"/>
+      <c r="C137" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12" t="s">
+      <c r="B138" s="7"/>
+      <c r="C138" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="11" t="s">
+    <row r="139" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
+      <c r="B139" s="7"/>
+      <c r="C139" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="11" t="s">
+    <row r="140" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12" t="s">
+      <c r="B140" s="7"/>
+      <c r="C140" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12" t="s">
+      <c r="B141" s="7"/>
+      <c r="C141" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="10" t="s">
+      <c r="B142" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="10" t="s">
+      <c r="B143" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="8" t="s">
+    <row r="144" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8" t="s">
+      <c r="B144" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="8" t="s">
+    <row r="145" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8" t="s">
+      <c r="B145" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="21" t="s">
+    <row r="146" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="11" t="s">
+      <c r="B146" s="17"/>
+      <c r="C146" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12" t="s">
+      <c r="B147" s="7"/>
+      <c r="C147" s="8" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="8" t="s">
+    <row r="148" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="10" t="s">
+      <c r="B148" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12" t="s">
+      <c r="B149" s="7"/>
+      <c r="C149" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12" t="s">
+      <c r="B150" s="7"/>
+      <c r="C150" s="8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="18" t="s">
+    <row r="151" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18" t="s">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="18" t="s">
+    <row r="152" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18" t="s">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="21" t="s">
+    <row r="153" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="8" t="s">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="10" t="s">
+      <c r="B154" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="11" t="s">
+    </row>
+    <row r="155" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12" t="s">
+      <c r="B155" s="7"/>
+      <c r="C155" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12" t="s">
+      <c r="B156" s="7"/>
+      <c r="C156" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -3783,7 +3880,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -3791,7 +3888,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -3799,7 +3896,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -3807,7 +3904,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -3815,7 +3912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -3823,7 +3920,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -3831,7 +3928,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -3839,7 +3936,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -3847,7 +3944,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -3855,7 +3952,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
@@ -3863,7 +3960,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
@@ -3871,7 +3968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
@@ -3879,7 +3976,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
@@ -3887,7 +3984,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -3895,7 +3992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -3903,7 +4000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
@@ -3911,7 +4008,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
@@ -3919,7 +4016,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
@@ -3927,7 +4024,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -3935,7 +4032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -3943,7 +4040,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -3951,25 +4048,25 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="21" t="s">
+    <row r="179" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="21" t="s">
+      <c r="B179" s="17"/>
+      <c r="C179" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="21"/>
-      <c r="C180" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B180" s="17"/>
+      <c r="C180" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -3977,16 +4074,16 @@
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="21" t="s">
+    <row r="182" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B182" s="17"/>
+      <c r="C182" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -3994,7 +4091,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -4002,7 +4099,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -4010,7 +4107,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -4018,7 +4115,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -4026,7 +4123,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -4034,7 +4131,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
@@ -4042,7 +4139,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -4050,7 +4147,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
@@ -4058,7 +4155,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -4066,7 +4163,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
@@ -4074,7 +4171,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
@@ -4082,7 +4179,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
@@ -4090,7 +4187,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
@@ -4098,7 +4195,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
@@ -4106,7 +4203,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
@@ -4114,7 +4211,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
@@ -4122,7 +4219,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
@@ -4130,7 +4227,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -4138,16 +4235,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="21" t="s">
+    <row r="202" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B202" s="17"/>
+      <c r="C202" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -4155,7 +4252,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
@@ -4163,7 +4260,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
@@ -4171,7 +4268,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
@@ -4179,7 +4276,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
@@ -4187,7 +4284,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
@@ -4195,7 +4292,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -4203,7 +4300,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -4211,7 +4308,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
@@ -4219,7 +4316,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
@@ -4227,7 +4324,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
@@ -4235,7 +4332,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
@@ -4243,7 +4340,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
@@ -4251,7 +4348,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
@@ -4259,7 +4356,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
@@ -4267,7 +4364,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
@@ -4275,7 +4372,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
@@ -4283,7 +4380,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -4291,7 +4388,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
@@ -4299,7 +4396,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -4307,7 +4404,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -4315,7 +4412,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -4323,25 +4420,25 @@
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="21" t="s">
+    <row r="225" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="21"/>
-      <c r="C225" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A226" s="21" t="s">
+      <c r="B225" s="17"/>
+      <c r="C225" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B226" s="21"/>
-      <c r="C226" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B226" s="17"/>
+      <c r="C226" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -4349,16 +4446,16 @@
         <v>505</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A228" s="21" t="s">
+    <row r="228" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B228" s="17"/>
+      <c r="C228" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -4366,7 +4463,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
@@ -4374,7 +4471,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
@@ -4382,7 +4479,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
@@ -4390,16 +4487,16 @@
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A233" s="21" t="s">
+    <row r="233" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="21"/>
-      <c r="C233" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B233" s="17"/>
+      <c r="C233" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
@@ -4407,7 +4504,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
@@ -4415,7 +4512,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
@@ -4423,25 +4520,25 @@
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A237" s="21" t="s">
+    <row r="237" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A238" s="21" t="s">
+      <c r="B237" s="17"/>
+      <c r="C237" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B238" s="17"/>
+      <c r="C238" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
@@ -4449,7 +4546,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
@@ -4457,7 +4554,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
@@ -4465,7 +4562,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
@@ -4473,16 +4570,16 @@
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A243" s="21" t="s">
+    <row r="243" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="21"/>
-      <c r="C243" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B243" s="17"/>
+      <c r="C243" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
@@ -4490,7 +4587,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
@@ -4498,7 +4595,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
@@ -4506,7 +4603,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
@@ -4514,25 +4611,25 @@
         <v>520</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A248" s="21" t="s">
+    <row r="248" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A249" s="21" t="s">
+      <c r="B248" s="17"/>
+      <c r="C248" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B249" s="17"/>
+      <c r="C249" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
@@ -4540,7 +4637,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
@@ -4548,7 +4645,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
@@ -4556,7 +4653,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
@@ -4564,7 +4661,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
@@ -4572,7 +4669,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
@@ -4580,7 +4677,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
@@ -4588,492 +4685,554 @@
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="B257" s="27"/>
+      <c r="C257" s="27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="B258" s="17"/>
+      <c r="C258" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="B259" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C259" s="29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="B260" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A261" s="1" t="s">
+    <row r="261" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="B261" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="B262" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="B263" s="7"/>
+      <c r="C263" s="7" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="B265" s="7"/>
+      <c r="C265" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="B266" s="7"/>
+      <c r="C266" s="7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="B267" s="7"/>
+      <c r="C267" s="7" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A268" s="21" t="s">
+    <row r="268" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="21"/>
-      <c r="C268" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A269" s="21" t="s">
+      <c r="B268" s="17"/>
+      <c r="C268" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B269" s="21"/>
-      <c r="C269" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A270" s="21" t="s">
+      <c r="B269" s="17"/>
+      <c r="C269" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="21"/>
-      <c r="C270" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A271" s="1" t="s">
+      <c r="B270" s="17"/>
+      <c r="C270" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="B271" s="7"/>
+      <c r="C271" s="7" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A272" s="1" t="s">
+    <row r="272" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="B272" s="7"/>
+      <c r="C272" s="7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A273" s="21" t="s">
+    <row r="273" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A274" s="8" t="s">
+      <c r="B273" s="17"/>
+      <c r="C273" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C274" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A275" s="1" t="s">
+      <c r="C274" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="B275" s="31"/>
+      <c r="C275" s="31" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A276" s="21" t="s">
+    <row r="276" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B276" s="21"/>
-      <c r="C276" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A277" s="1" t="s">
+      <c r="B276" s="17"/>
+      <c r="C276" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="31" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A278" s="1" t="s">
+    <row r="278" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="B278" s="31"/>
+      <c r="C278" s="31" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A279" s="21" t="s">
+    <row r="279" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B279" s="21"/>
-      <c r="C279" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A280" s="21" t="s">
+      <c r="B279" s="17"/>
+      <c r="C279" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A281" s="1" t="s">
+      <c r="B280" s="17"/>
+      <c r="C280" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="B281" s="31"/>
+      <c r="C281" s="31" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A282" s="1" t="s">
+    <row r="282" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="B282" s="7"/>
+      <c r="C282" s="8" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A283" s="21" t="s">
+    <row r="283" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="21"/>
-      <c r="C283" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A284" s="1" t="s">
+      <c r="B283" s="17"/>
+      <c r="C283" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="B284" s="33"/>
+      <c r="C284" s="33" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A285" s="1" t="s">
+    <row r="285" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="B285" s="17"/>
+      <c r="C285" s="17" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A286" s="1" t="s">
+    <row r="286" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="B286" s="33"/>
+      <c r="C286" s="33" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A287" s="21" t="s">
+    <row r="287" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="21"/>
-      <c r="C287" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A288" s="21" t="s">
+      <c r="B287" s="17"/>
+      <c r="C287" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="21"/>
-      <c r="C288" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A289" s="1" t="s">
+      <c r="B288" s="17"/>
+      <c r="C288" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="B289" s="33"/>
+      <c r="C289" s="33" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A290" s="1" t="s">
+    <row r="290" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="B290" s="33"/>
+      <c r="C290" s="33" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A291" s="1" t="s">
+    <row r="291" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="B291" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C291" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A292" s="21" t="s">
+    <row r="292" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="21"/>
-      <c r="C292" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A293" s="1" t="s">
+      <c r="B292" s="17"/>
+      <c r="C292" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="B293" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A294" s="21" t="s">
+    <row r="294" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="21"/>
-      <c r="C294" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A295" s="1" t="s">
+      <c r="B294" s="17"/>
+      <c r="C294" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="B295" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C295" s="29" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="B296" s="7"/>
+      <c r="C296" s="7" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A297" s="1" t="s">
+    <row r="297" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="B297" s="7"/>
+      <c r="C297" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A298" s="21" t="s">
+    <row r="298" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="21"/>
-      <c r="C298" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A299" s="1" t="s">
+      <c r="B298" s="17"/>
+      <c r="C298" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="B299" s="7"/>
+      <c r="C299" s="7" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A300" s="1" t="s">
+    <row r="300" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="B300" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A301" s="1" t="s">
+    <row r="301" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="B301" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A302" s="21" t="s">
+    <row r="302" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B302" s="21"/>
-      <c r="C302" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A303" s="1" t="s">
+      <c r="B302" s="17"/>
+      <c r="C302" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="B303" s="7"/>
+      <c r="C303" s="7" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A304" s="21" t="s">
+    <row r="304" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B304" s="21"/>
-      <c r="C304" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A305" s="21" t="s">
+      <c r="B304" s="17"/>
+      <c r="C304" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B305" s="21"/>
-      <c r="C305" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A306" s="1" t="s">
+      <c r="B305" s="17"/>
+      <c r="C305" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="B306" s="17"/>
+      <c r="C306" s="17" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A307" s="1" t="s">
+    <row r="307" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="B307" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C307" s="29" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A308" s="21" t="s">
+    <row r="308" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B308" s="21"/>
-      <c r="C308" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A309" s="1" t="s">
+      <c r="B308" s="17"/>
+      <c r="C308" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="B309" s="7"/>
+      <c r="C309" s="7" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A310" s="21" t="s">
+    <row r="310" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B310" s="21"/>
-      <c r="C310" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A311" s="1" t="s">
+      <c r="B310" s="17"/>
+      <c r="C310" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="B311" s="7"/>
+      <c r="C311" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A312" s="1" t="s">
+    <row r="312" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="B312" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A313" s="1" t="s">
+    <row r="313" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="B313" s="7"/>
+      <c r="C313" s="7" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="B314" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>310</v>
       </c>
@@ -5081,544 +5240,341 @@
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A316" s="1" t="s">
+    <row r="316" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="B316" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A317" s="1" t="s">
+    <row r="317" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="B317" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C317" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A318" s="1" t="s">
+    <row r="318" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="B318" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C318" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A319" s="1" t="s">
+    <row r="319" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="B319" s="7"/>
+      <c r="C319" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A320" s="21" t="s">
+    <row r="320" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B320" s="21"/>
-      <c r="C320" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A321" s="1" t="s">
+      <c r="B320" s="17"/>
+      <c r="C320" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="B321" s="7"/>
+      <c r="C321" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A322" s="1" t="s">
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="B322" s="7"/>
+      <c r="C322" s="7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A323" s="21" t="s">
+    <row r="323" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B323" s="21"/>
-      <c r="C323" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A324" s="1" t="s">
+      <c r="B323" s="17"/>
+      <c r="C323" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="B324" s="7"/>
+      <c r="C324" s="7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A325" s="1" t="s">
+    <row r="325" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="B325" s="7"/>
+      <c r="C325" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A326" s="1" t="s">
+    <row r="326" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="B326" s="7"/>
+      <c r="C326" s="7" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A327" s="1" t="s">
+    <row r="327" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="B327" s="7"/>
+      <c r="C327" s="7" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A328" s="1" t="s">
+    <row r="328" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="B328" s="7"/>
+      <c r="C328" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A329" s="1" t="s">
+    <row r="329" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="B329" s="7"/>
+      <c r="C329" s="7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A330" s="1" t="s">
+    <row r="330" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="B330" s="7"/>
+      <c r="C330" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A331" s="1" t="s">
+    <row r="331" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="B331" s="35"/>
+      <c r="C331" s="35" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A332" s="1" t="s">
+    <row r="332" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="B332" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C332" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A333" s="1" t="s">
+    <row r="333" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="B333" s="7"/>
+      <c r="C333" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A334" s="21" t="s">
+    <row r="334" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="B334" s="21"/>
-      <c r="C334" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A335" s="1" t="s">
+      <c r="B334" s="17"/>
+      <c r="C334" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="B335" s="7"/>
+      <c r="C335" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A336" s="1" t="s">
+    <row r="336" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="B336" s="7"/>
+      <c r="C336" s="7" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A337" s="1" t="s">
+    <row r="337" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="B337" s="7"/>
+      <c r="C337" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A338" s="21" t="s">
+    <row r="338" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="B338" s="21"/>
-      <c r="C338" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A339" s="21" t="s">
+      <c r="B338" s="17"/>
+      <c r="C338" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B339" s="21"/>
-      <c r="C339" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A340" s="21" t="s">
+      <c r="B339" s="17"/>
+      <c r="C339" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B340" s="21"/>
-      <c r="C340" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A341" s="1" t="s">
+      <c r="B340" s="17"/>
+      <c r="C340" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="B341" s="7"/>
+      <c r="C341" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A342" s="1" t="s">
+    <row r="342" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="B342" s="7"/>
+      <c r="C342" s="7" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A343" s="1" t="s">
+    <row r="343" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="B343" s="7"/>
+      <c r="C343" s="7" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A344" s="1" t="s">
+    <row r="344" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="B344" s="7"/>
+      <c r="C344" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A345" s="1" t="s">
+    <row r="345" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="B345" s="7"/>
+      <c r="C345" s="7" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A346" s="1" t="s">
+    <row r="346" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="B346" s="7"/>
+      <c r="C346" s="7" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A347" s="1" t="s">
+    <row r="347" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="B347" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C347" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
+    <row r="348" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="B348" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C348" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
+    <row r="349" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="B349" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C349" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
+    <row r="350" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="B350" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>593</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="htps://www.jetbrains.com/pycharm"/>
-        <filter val="http://comcigan.co.kr/xe/jdata/19463"/>
-        <filter val="http://www.ezpdf.co.kr/main/downPage/downPage.jsp"/>
-        <filter val="https//line.me/ko/"/>
-        <filter val="https://advert.estsoft.com/?event=200803271705239"/>
-        <filter val="https://ajuda.nelogica.com.br/hc/pt-br/articles/360061369691-Como-realizar-o-Download-da-Plataforma"/>
-        <filter val="https://albiononline.com/en/download"/>
-        <filter val="https://altools.co.kr/download/alcapture.aspx/Mobile"/>
-        <filter val="https://altools.co.kr/download/alsee.aspx"/>
-        <filter val="https://altools.co.kr/product/ALTOOLS"/>
-        <filter val="https://anydesk.softonic.kr"/>
-        <filter val="https://app.prntscr.com/en/index.html"/>
-        <filter val="https://appdown.pstatic.net/naver/NaverMediaPlayer/setup/SeriesPlayerInst.exe"/>
-        <filter val="https://apps.microsoft.com/detail/9p6rc76msmmj?hl=en-us&amp;gl=EN"/>
-        <filter val="https://aws.amazon.com/chime"/>
-        <filter val="https://band.us/cs/notice/1301"/>
-        <filter val="https://biz.epost.go.kr/comm/downLoad.jsp?folderName=systemProgram&amp;fileName=Setup_OZ_Viewer_R.exe"/>
-        <filter val="https://blitz.gg"/>
-        <filter val="https://clamwin.com/"/>
-        <filter val="https://code.visualstudio.com"/>
-        <filter val="https://creativecloud.adobe.com/apps/download/creative-cloud"/>
-        <filter val="https://customerconnect.vmware.com/"/>
-        <filter val="https://customerconnect.vmware.com/en/downloads"/>
-        <filter val="https://cygwin.com/install.html"/>
-        <filter val="https://dbeaver.io"/>
-        <filter val="https://developer.android.com/studio"/>
-        <filter val="https://docs.microsoft.com/ko-kr/sql/ssms/download-sql-server-management-studio-ssms?view=sql-server-ver16"/>
-        <filter val="https://doublecommander.com/"/>
-        <filter val="https://download.cnet.com/cd-dvd-viewer/3001-2248_4-75664946.html?dt=internalDownload"/>
-        <filter val="https://duckduckgo.com/windows"/>
-        <filter val="https://duo.google.com"/>
-        <filter val="https://en.bignox.com"/>
-        <filter val="https://evernote.com"/>
-        <filter val="https://filezilla-project.org/download.php?type=client"/>
-        <filter val="https://filmora.wondershare.kr"/>
-        <filter val="https://gaggle.fun/goose-goose-duck"/>
-        <filter val="https://genshin.hoyoverse.com/ko/download?utm_source=fab"/>
-        <filter val="https://hometax.go.kr/html/pp/veraport/html/nx_veraportView.html"/>
-        <filter val="https://iblogbox.com/npdf/"/>
-        <filter val="https://im.qq.com/pcqq"/>
-        <filter val="https://kep.ktcu.or.kr"/>
-        <filter val="https://ko.libreoffice.org/download/libreoffice-fresh/"/>
-        <filter val="https://kr.bandisoft.com/bandizip"/>
-        <filter val="https://kr.dwgfastview.com/cloud/download/"/>
-        <filter val="https://kr.ldplayer.net/download/install"/>
-        <filter val="https://kr.norton.com/products/norton-360"/>
-        <filter val="https://medibang-paint-pro.en.softonic.com"/>
-        <filter val="https://meet.goto.com/install"/>
-        <filter val="https://moneydance.com/"/>
-        <filter val="https://mybank.ibk.co.kr/uib/jsp/index.jsp"/>
-        <filter val="https://ncpurple.com/kr/intro/index"/>
-        <filter val="https://netbeans.apache.org/front/main/index.html"/>
-        <filter val="https://new.real.download.dws.co.kr/download/eFriendPlus_setup.exe"/>
-        <filter val="https://notepad-plus-plus.org/downloads/"/>
-        <filter val="https://obsproject.com/download"/>
-        <filter val="https://ohsoft.net/kor/ocam/download.php"/>
-        <filter val="https://op.gg/desktop/"/>
-        <filter val="https://openrefine.org/"/>
-        <filter val="https://openvpn.net/community-downloads/"/>
-        <filter val="https://pc.weixin.qq.com/?=win_weixin&amp;lang=en"/>
-        <filter val="https://pdf.wondershare.com/donwload.html"/>
-        <filter val="https://pdf-xchange.eu/pdf-xchange-editor/index.htm"/>
-        <filter val="https://picpick.net/"/>
-        <filter val="https://playruneterra.com/ko-kr/"/>
-        <filter val="https://playvalorant.com/kr-kr/"/>
-        <filter val="https://prismlive.com"/>
-        <filter val="https://q-dir.softonic.kr/download"/>
-        <filter val="https://secure-browser.softonic.kr"/>
-        <filter val="https://series.naver.com/booksviewer/html/nstore/epub_install_guide.html"/>
-        <filter val="https://series.naver.com/comic/viewer/install/guide"/>
-        <filter val="https://socialclub.rockstargames.com/rockstar-games-launcher"/>
-        <filter val="https://sourceforge.net/projects/orwelldevcpp/"/>
-        <filter val="https://speed.nia.or.kr/CheckAgent.asp?mode=speed"/>
-        <filter val="https://store.ubi.com/kr/home"/>
-        <filter val="https://support.microsoft.com/"/>
-        <filter val="https://tools.pdf24.org/en/creator"/>
-        <filter val="https://turbocleaner.co.kr"/>
-        <filter val="https://tv.kakao.com/guide/potplayer"/>
-        <filter val="https://ucworks.io/download-ucworks/"/>
-        <filter val="https://unity.com/kr/download"/>
-        <filter val="https://v.kr.kollus.com/pc_player_install/agent?cpk=megastudyedu"/>
-        <filter val="https://visualstudio.microsoft.com"/>
-        <filter val="https://vivaldi.com"/>
-        <filter val="https://wavebrowser.com"/>
-        <filter val="https://webminwon.com/webminwon_portal/cert.html#reload"/>
-        <filter val="https://whale.naver.com/ko/download/win/"/>
-        <filter val="https://worldofwarships.asia/en/content/game/"/>
-        <filter val="https://ww.adobe.com/kr/products/illustrator.html"/>
-        <filter val="https://www,altools.co.kr/download/alpdf.aspx"/>
-        <filter val="https://www,google.com/earth/"/>
-        <filter val="https://www,whatsapp.com/download"/>
-        <filter val="https://www.5kplayer.com/#5KPlayer"/>
-        <filter val="https://www.adobe.com"/>
-        <filter val="https://www.adobe.com/kor/products/photosho-lightroom.html"/>
-        <filter val="https://www.adobe.com/kr/acrobat.html"/>
-        <filter val="https://www.adobe.com/kr/acrobat/pdf-reader.html"/>
-        <filter val="https://www.adobe.com/kr/products/aftereffects/free-trial-download.html#"/>
-        <filter val="https://www.adobe.com/kr/products/indesign.html"/>
-        <filter val="https://www.afreecatv.com → Play arbitrary image → Change resolution to 1080p and download 'high definition streamer'"/>
-        <filter val="https://www.ahnlab.com/kr/site/productView.do?prodSeq=8"/>
-        <filter val="https://www.altools.co.kr"/>
-        <filter val="https://www.anaconda.com/download/success"/>
-        <filter val="https://www.atube.me"/>
-        <filter val="https://www.autodesk.co.kr/products/autocad"/>
-        <filter val="https://www.autodesk.com/products.dwg-trueview/overview"/>
-        <filter val="https://www.autodesk.com/products/autodesk-access/overview"/>
-        <filter val="https://www.avast.com"/>
-        <filter val="https://www.avast.com/cleanup#pc"/>
-        <filter val="https://www.avast.com/en-us/driver-update#pc"/>
-        <filter val="https://www.avast.com/secureline-vpn"/>
-        <filter val="https://www.avg.com/en-us/free-antivirus-download#pc"/>
-        <filter val="https://www.avg.com/ko-kr/secure-browser#pc"/>
-        <filter val="https://www.avira.com"/>
-        <filter val="https://www.bandicam.com/downloads/"/>
-        <filter val="https://www.bandisoft.com"/>
-        <filter val="https://www.binance.com"/>
-        <filter val="https://www.bitdefender.com/solutions/free.html"/>
-        <filter val="https://www.bittorrent.com/"/>
-        <filter val="https://www.blizzard.com"/>
-        <filter val="https://www.bluestacks.com/download.html"/>
-        <filter val="https://www.brainasoft.com/braina/buy/pc-download.html"/>
-        <filter val="https://www.breezip.com"/>
-        <filter val="https://www.brother-korea.com/ko-kr/support"/>
-        <filter val="https://www.canva.com"/>
-        <filter val="https://www.capcut.com"/>
-        <filter val="https://www.ccleaner.com/ccleaner/download"/>
-        <filter val="https://www.checkmal.com/product/appcheck/?lang=ko"/>
-        <filter val="https://www.clipstudio.net/"/>
-        <filter val="https://www.clipstudio.net/en/dl/"/>
-        <filter val="https://www.codeblocks.org/downloads/"/>
-        <filter val="https://www.coolmessenger.com/front_n/support/download.asp"/>
-        <filter val="https://www.coreldraw.com/"/>
-        <filter val="https://www.deepl.com/en/app/"/>
-        <filter val="https://www.desktopcal.com"/>
-        <filter val="https://www.drawboard.com"/>
-        <filter val="https://www.dropbox.com/install"/>
-        <filter val="https://www.ea.com"/>
-        <filter val="https://www.ebs.co.kr/common/ZoneMediaPlayer/site/ebs/download/Setup.exe"/>
-        <filter val="https://www.eclipse.org/downloads"/>
-        <filter val="https://www.editplus.com/kr/download.html"/>
-        <filter val="https://www.emsisoft.com/en/home/emergency-kit/"/>
-        <filter val="https://www.epki.go.kr"/>
-        <filter val="https://www.estsecurity.com"/>
-        <filter val="https://www.formtec.co.kr/software/software_main.html"/>
-        <filter val="https://www.fortinet.com/support/product-downloads"/>
-        <filter val="https://www.foxit.com/pdf-reader/"/>
-        <filter val="https://www.gbuspb.kr"/>
-        <filter val="https://www.gobest.kr/goclean_app/index.htm"/>
-        <filter val="https://www.gomlab.com"/>
-        <filter val="https://www.gomlab.com/gomcam-screen-recording/"/>
-        <filter val="https://www.gomlab.com/gormmixpro-video-editing"/>
-        <filter val="https://www.gomlab.com/overview/license"/>
-        <filter val="https://www.gonitro.com/pro/try"/>
-        <filter val="https://www.google.com/chrome"/>
-        <filter val="https://www.google.com/drive/download/"/>
-        <filter val="https://www.grammarly.com/desktop"/>
-        <filter val="https://www.haihaisoft.com/hup.aspx"/>
-        <filter val="https://www.hira.or.kr/exe/KAServiceCS_Setup.exe"/>
-        <filter val="https://www.hira.or.kr/exe/KSignCASE_For_HTML5_Windows_v1.3.28.exe"/>
-        <filter val="https://www.hometax.go.kr"/>
-        <filter val="https://www.ibk.co.kr"/>
-        <filter val="https://www.image-line.com/fl-studio-download/"/>
-        <filter val="https://www.iptime.co.kr/iptime/?page-id=126&amp;uid=16240&amp;mod=document"/>
-        <filter val="https://www.java.com/ko/download"/>
-        <filter val="https://www.jetbrains.com/ko-kr/idea/"/>
-        <filter val="https://www.kaspersky.com/downloads/antivirus-free-trial"/>
-        <filter val="https://www.kbsec.com/go.able"/>
-        <filter val="https://www.kiwoom.com"/>
-        <filter val="https://www.kmplayer.com"/>
-        <filter val="https://www.kmplayer.com/home"/>
-        <filter val="https://www.knote.kr/viewManualInstall.do"/>
-        <filter val="https://www.leagueoflegends.com"/>
-        <filter val="https://www.logitechg.com/ko-kr/innovation/g-hub.html"/>
-        <filter val="https://www.malwarebytes.com/"/>
-        <filter val="https://www.mcafee.com"/>
-        <filter val="https://www.mcafee.com/en-us/safe-browser/mcafee-webadvisor.html"/>
-        <filter val="https://www.melon.comm/index.htm"/>
-        <filter val="https://www.memuplay.com"/>
-        <filter val="https://www.microsoft.com/"/>
-        <filter val="https://www.microsoft.com/en-us/p/cooking-fever/9nblggh1cq7l"/>
-        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/microsoft-whiteboard/digital-whiteboard-app"/>
-        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/onedrive/download"/>
-        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/outlook/outlook-for-business"/>
-        <filter val="https://www.microsoft.com/ko-kr/microsoft-365/publisher"/>
-        <filter val="https://www.millie.co.kr/v3/brand/update"/>
-        <filter val="https://www.movavi.com/kr/video-aditor-plus/"/>
-        <filter val="https://www.mucommander.com/"/>
-        <filter val="https://www.notion.so/ko-kr/desktop"/>
-        <filter val="https://www.onstove.com/download"/>
-        <filter val="https://www.opautoclicker.com"/>
-        <filter val="https://www.openoffice.org/ko/download/index.html"/>
-        <filter val="https://www.opera.com"/>
-        <filter val="https://www.overwolf.com"/>
-        <filter val="https://www.pdfforge.org/pdfarchitect"/>
-        <filter val="https://www.pdfforge.org/pdfcreator/download"/>
-        <filter val="https://www.photoscape.org/"/>
-        <filter val="https://www.pokerstars.com"/>
-        <filter val="https://www.polarisoffice.com/en/download"/>
-        <filter val="https://www.putty.org"/>
-        <filter val="https://www.python.org"/>
-        <filter val="https://www.radmin-vpn.com"/>
-        <filter val="https://www.raonk.com/page/experience/editor.aspx"/>
-        <filter val="https://www.raonsecure.com/ko/support/inquiry/keysharpbiz"/>
-        <filter val="https://www.razer.com/synapse-3"/>
-        <filter val="https://www.riotgames.com"/>
-        <filter val="https://www.roblox.com/download"/>
-        <filter val="https://www.rocketleague.com"/>
-        <filter val="https://www.rockstargames.com"/>
-        <filter val="https://www.rstudio.com/products/rstudio/download/"/>
-        <filter val="https://www.samsungfire.com/util/P_U04_00_00_001.html"/>
-        <filter val="https://www.shinhan.com"/>
-        <filter val="https://www.shinhansec.com/siw/customer-center/security/731707/contents.do"/>
-        <filter val="https://www.smemo.co.kr"/>
-        <filter val="https://www.softmaker.com/en/softmaker-office-textmaker"/>
-        <filter val="https://www.stremio.com"/>
-        <filter val="https://www.sublimetext.com"/>
-        <filter val="https://www.teamviewer.com"/>
-        <filter val="https://www.telegram.dog/desktop"/>
-        <filter val="https://www.thunderbird.net/en-US/"/>
-        <filter val="https://www.tobesoft.com/product/Xplatform.do"/>
-        <filter val="https://www.tradesign.net/certificate/nxtssetup"/>
-        <filter val="https://www.trendmicro.com/en_us/forHome/products/free-tools.html"/>
-        <filter val="https://www.turbovaccine.com/download2.asp"/>
-        <filter val="https://www.ubikey.co.kr/guide/subscribe.asp"/>
-        <filter val="https://www.ultraedit.com"/>
-        <filter val="https://www.unisign.co.kr/pps/install/index.html"/>
-        <filter val="https://www.unrealengine.com/en-US/download"/>
-        <filter val="https://www.utorrent.com"/>
-        <filter val="https://www.vagascreativesofftware.com"/>
-        <filter val="https://www.videolan.org/vlc/"/>
-        <filter val="https://www.virtualbox.org/wiki/Downloads"/>
-        <filter val="https://www.viruschaser.com/download/download"/>
-        <filter val="https://www.voidtools.com/ko-kr/"/>
-        <filter val="https://www.vpn.net"/>
-        <filter val="https://www.warframe.com"/>
-        <filter val="https://www.webex.com/ko/downloads.html"/>
-        <filter val="https://www.webroot.com/us/en/home/products/trials/av"/>
-        <filter val="https://www.win-rar.com"/>
-        <filter val="https://www.winzip.com/en/"/>
-        <filter val="https://www.youtube.com/watch?v=njX2bu-_Vw4"/>
-        <filter val="https://www.zalo.me/pc"/>
-        <filter val="https://www.zwsoft.co.kr/download/0-1-0_v02.asp?CODE_No=1"/>
-        <filter val="https://zoom.us/download"/>
-        <filter val="https:/apps.microsoft.com/store/apps"/>
-        <filter val="https:/worldoftanks.asia/ko/game/download"/>
-        <filter val="htts://pudg.game.daum.net/pubg/index.daum"/>
-        <filter val="Microsoft Store"/>
-      </filters>
+  <autoFilter ref="A1:C350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -5709,8 +5665,10 @@
     <hyperlink ref="C155" r:id="rId85" xr:uid="{6C4D26EB-629C-4653-AE04-FE9F40A6C554}"/>
     <hyperlink ref="C264" r:id="rId86" xr:uid="{C3D74C9B-5C96-4ED9-BFC0-FD432628C1CE}"/>
     <hyperlink ref="C89" r:id="rId87" xr:uid="{F6219BA3-1D74-480C-9ABA-317839925873}"/>
+    <hyperlink ref="C44" r:id="rId88" xr:uid="{2580578D-69B6-45AB-9C0F-8B9E0813EE8A}"/>
+    <hyperlink ref="C282" r:id="rId89" xr:uid="{2E8F4894-95BC-4E16-AC2D-42426027A339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/data_app_web.xlsx
+++ b/data_app_web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Web_Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\App_Web_Check_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22372B41-0878-45BB-9E51-AD20408D977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDCF50B-6FB4-4E2D-87AA-BC6F5F6D048D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="13178" xr2:uid="{8E87FFDB-8A0A-4559-AD0D-C62D88F44937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="625">
   <si>
     <t>Ahnlab Safe Transaction</t>
   </si>
@@ -1857,9 +1857,6 @@
     <t>website</t>
   </si>
   <si>
-    <t>Data?</t>
-  </si>
-  <si>
     <t>Install Fail</t>
   </si>
   <si>
@@ -1882,6 +1879,30 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>Can't install</t>
+  </si>
+  <si>
+    <t>Install visual c++ required</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Need reset</t>
+  </si>
+  <si>
+    <t>Not Found App</t>
+  </si>
+  <si>
+    <t>Not Found install window</t>
+  </si>
+  <si>
+    <t>Need key</t>
+  </si>
+  <si>
+    <t>Rar file</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1954,12 +1975,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1973,12 +1988,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,7 +2038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2045,28 +2054,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2086,9 +2090,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2126,7 +2130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2232,7 +2236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2374,7 +2378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2382,21 +2386,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2495,16 +2498,16 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2567,27 +2570,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2605,16 +2608,16 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
@@ -2632,16 +2635,16 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2652,25 +2655,25 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
@@ -2690,43 +2693,43 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2748,16 +2751,16 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -2819,36 +2822,36 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -2859,61 +2862,61 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
@@ -2997,16 +3000,16 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -3039,25 +3042,25 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
@@ -3119,16 +3122,16 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
+    <row r="76" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
@@ -3137,16 +3140,16 @@
         <v>382</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
+    <row r="78" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3168,16 +3171,16 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
+    <row r="81" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>80</v>
       </c>
@@ -3186,16 +3189,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>83</v>
       </c>
@@ -3215,16 +3218,16 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
+    <row r="86" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>85</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>86</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>87</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>88</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>91</v>
       </c>
@@ -3289,27 +3292,27 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
+    <row r="95" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>94</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>95</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>96</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>97</v>
       </c>
@@ -3345,16 +3348,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
+    <row r="100" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>99</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>599</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>100</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>101</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>103</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>104</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="7" t="s">
         <v>105</v>
       </c>
@@ -3426,16 +3429,16 @@
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
+    <row r="109" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
         <v>107</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>110</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>111</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>112</v>
       </c>
@@ -3489,16 +3492,16 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
+    <row r="116" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>114</v>
       </c>
@@ -3507,16 +3510,16 @@
         <v>412</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
+    <row r="118" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>116</v>
       </c>
@@ -3525,25 +3528,25 @@
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="18" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
+    <row r="120" spans="1:3" s="15" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>119</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>120</v>
       </c>
@@ -3563,16 +3566,16 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="124" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>122</v>
       </c>
@@ -3581,52 +3584,52 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+    <row r="126" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="26" t="s">
+      <c r="B127" s="21"/>
+      <c r="C127" s="23" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+    <row r="128" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20" t="s">
+      <c r="B129" s="16"/>
+      <c r="C129" s="17" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
+    <row r="130" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="26" t="s">
+      <c r="B130" s="21"/>
+      <c r="C130" s="23" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>128</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>129</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
         <v>130</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
         <v>131</v>
       </c>
@@ -3662,16 +3665,16 @@
         <v>423</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
+    <row r="135" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
         <v>133</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
         <v>134</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
         <v>135</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
         <v>136</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
         <v>138</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>139</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>140</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>141</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>142</v>
       </c>
@@ -3769,16 +3772,16 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
+    <row r="146" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
         <v>144</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
         <v>145</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>146</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -3816,34 +3819,36 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
+    <row r="151" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14" t="s">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="14" t="s">
+    <row r="152" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14" t="s">
+      <c r="B152" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="17" t="s">
+    <row r="153" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>151</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
         <v>152</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>153</v>
       </c>
@@ -3872,849 +3877,992 @@
         <v>442</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" s="24"/>
+      <c r="C157" s="24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="7"/>
+      <c r="C158" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" s="7"/>
+      <c r="C160" s="7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" s="7"/>
+      <c r="C161" s="7" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="7" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" s="7"/>
+      <c r="C163" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" s="7"/>
+      <c r="C164" s="7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" s="7"/>
+      <c r="C165" s="7" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="B166" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A167" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="B167" s="7"/>
+      <c r="C167" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="B168" s="7"/>
+      <c r="C168" s="7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="B170" s="7"/>
+      <c r="C170" s="7" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A171" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="B171" s="7"/>
+      <c r="C171" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="B172" s="7"/>
+      <c r="C172" s="7" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A173" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="B173" s="7"/>
+      <c r="C173" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="B174" s="7"/>
+      <c r="C174" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="B175" s="7"/>
+      <c r="C175" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="B178" s="7"/>
+      <c r="C178" s="7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="17" t="s">
+    <row r="179" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="17" t="s">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A181" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="B181" s="7"/>
+      <c r="C181" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="17" t="s">
+    <row r="182" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="B183" s="7"/>
+      <c r="C183" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="B184" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="B185" s="7"/>
+      <c r="C185" s="7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="B186" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="B187" s="7"/>
+      <c r="C187" s="7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="B188" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="B189" s="7"/>
+      <c r="C189" s="7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="B190" s="7"/>
+      <c r="C190" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="B191" s="7"/>
+      <c r="C191" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="B192" s="7"/>
+      <c r="C192" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="B193" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="B194" s="7"/>
+      <c r="C194" s="7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="B195" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="B196" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="B197" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="B198" s="7"/>
+      <c r="C198" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="B199" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="B200" s="7"/>
+      <c r="C200" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A201" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="B201" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="17" t="s">
+    <row r="202" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="B203" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="B204" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="B205" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A206" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="B206" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+    <row r="207" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A207" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="B207" s="7"/>
+      <c r="C207" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+    <row r="208" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A208" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="B208" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A209" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="B209" s="7"/>
+      <c r="C209" s="7" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+    <row r="210" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A210" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="B210" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A211" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="B211" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="B212" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="B213" s="7"/>
+      <c r="C213" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A214" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="B214" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="B215" s="7"/>
+      <c r="C215" s="7" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="B216" s="7"/>
+      <c r="C216" s="7" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="B217" s="7"/>
+      <c r="C217" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+    <row r="218" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="B218" s="7"/>
+      <c r="C218" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="B219" s="7"/>
+      <c r="C219" s="7" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="B220" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="B221" s="7"/>
+      <c r="C221" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A222" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="B222" s="7"/>
+      <c r="C222" s="7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+    <row r="223" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="B223" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="224" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="B224" s="7"/>
+      <c r="C224" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="17" t="s">
+    <row r="225" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="17" t="s">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B226" s="17"/>
-      <c r="C226" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A227" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="B227" s="7"/>
+      <c r="C227" s="7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="17" t="s">
+    <row r="228" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B228" s="17"/>
-      <c r="C228" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A229" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="B229" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A230" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="B230" s="7"/>
+      <c r="C230" s="7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="B231" s="7"/>
+      <c r="C231" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="B232" s="7"/>
+      <c r="C232" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="17" t="s">
+    <row r="233" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="17"/>
-      <c r="C233" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="B233" s="14"/>
+      <c r="C233" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="B234" s="7"/>
+      <c r="C234" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+    <row r="235" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="B235" s="7"/>
+      <c r="C235" s="7" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A236" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="B236" s="7"/>
+      <c r="C236" s="7" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="17" t="s">
+    <row r="237" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B237" s="17"/>
-      <c r="C237" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="17" t="s">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="B238" s="14"/>
+      <c r="C238" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A239" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="B239" s="7"/>
+      <c r="C239" s="7" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+    <row r="240" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A240" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="B240" s="7"/>
+      <c r="C240" s="7" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="B241" s="7"/>
+      <c r="C241" s="7" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+    <row r="242" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="B242" s="7"/>
+      <c r="C242" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="17" t="s">
+    <row r="243" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="17"/>
-      <c r="C243" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="B243" s="14"/>
+      <c r="C243" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="B244" s="7"/>
+      <c r="C244" s="7" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+    <row r="245" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A245" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="B245" s="7"/>
+      <c r="C245" s="7" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="B246" s="7"/>
+      <c r="C246" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="B247" s="7"/>
+      <c r="C247" s="7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="17" t="s">
+    <row r="248" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B248" s="17"/>
-      <c r="C248" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="17" t="s">
+      <c r="B248" s="14"/>
+      <c r="C248" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B249" s="17"/>
-      <c r="C249" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="B249" s="14"/>
+      <c r="C249" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="B250" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+    <row r="251" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="B251" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+    <row r="252" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="B252" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+    <row r="253" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="B253" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A254" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="B254" s="7"/>
+      <c r="C254" s="7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+    <row r="255" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="B255" s="7"/>
+      <c r="C255" s="7" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A256" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="B256" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="27" t="s">
+    <row r="257" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B257" s="27"/>
-      <c r="C257" s="27" t="s">
+      <c r="B257" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="C257" s="24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="17" t="s">
+    <row r="258" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B258" s="17"/>
-      <c r="C258" s="17" t="s">
+      <c r="B258" s="14"/>
+      <c r="C258" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="29" t="s">
+    <row r="259" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B259" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C259" s="29" t="s">
+      <c r="B259" s="7"/>
+      <c r="C259" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A260" s="4" t="s">
         <v>257</v>
       </c>
@@ -4725,7 +4873,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>258</v>
       </c>
@@ -4736,7 +4884,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A262" s="4" t="s">
         <v>259</v>
       </c>
@@ -4747,7 +4895,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A263" s="7" t="s">
         <v>260</v>
       </c>
@@ -4756,7 +4904,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A264" s="7" t="s">
         <v>261</v>
       </c>
@@ -4765,7 +4913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A265" s="7" t="s">
         <v>262</v>
       </c>
@@ -4774,7 +4922,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A266" s="7" t="s">
         <v>263</v>
       </c>
@@ -4783,7 +4931,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A267" s="7" t="s">
         <v>264</v>
       </c>
@@ -4792,34 +4940,34 @@
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="17" t="s">
+    <row r="268" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="17"/>
-      <c r="C268" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="17" t="s">
+      <c r="B268" s="14"/>
+      <c r="C268" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="B269" s="17"/>
-      <c r="C269" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="17" t="s">
+      <c r="B269" s="14"/>
+      <c r="C269" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="17"/>
-      <c r="C270" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A271" s="7" t="s">
         <v>268</v>
       </c>
@@ -4828,7 +4976,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A272" s="7" t="s">
         <v>269</v>
       </c>
@@ -4837,16 +4985,16 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="17" t="s">
+    <row r="273" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="17"/>
-      <c r="C273" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="14"/>
+      <c r="C273" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A274" s="4" t="s">
         <v>271</v>
       </c>
@@ -4857,69 +5005,69 @@
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="31" t="s">
+    <row r="275" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A275" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B275" s="31"/>
-      <c r="C275" s="31" t="s">
+      <c r="B275" s="26"/>
+      <c r="C275" s="26" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="17" t="s">
+    <row r="276" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B276" s="17"/>
-      <c r="C276" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="31" t="s">
+      <c r="B276" s="14"/>
+      <c r="C276" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A277" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C277" s="31" t="s">
+      <c r="C277" s="26" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="31" t="s">
+    <row r="278" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A278" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B278" s="31"/>
-      <c r="C278" s="31" t="s">
+      <c r="B278" s="26"/>
+      <c r="C278" s="26" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="17" t="s">
+    <row r="279" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B279" s="17"/>
-      <c r="C279" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="17" t="s">
+      <c r="B279" s="14"/>
+      <c r="C279" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A280" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B280" s="17"/>
-      <c r="C280" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="31" t="s">
+      <c r="B280" s="14"/>
+      <c r="C280" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A281" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B281" s="31"/>
-      <c r="C281" s="31" t="s">
+      <c r="B281" s="26"/>
+      <c r="C281" s="26" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A282" s="7" t="s">
         <v>278</v>
       </c>
@@ -4928,79 +5076,79 @@
         <v>544</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="17" t="s">
+    <row r="283" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A283" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="17"/>
-      <c r="C283" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="33" t="s">
+      <c r="B283" s="14"/>
+      <c r="C283" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A284" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="33"/>
-      <c r="C284" s="33" t="s">
+      <c r="B284" s="28"/>
+      <c r="C284" s="28" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="17" t="s">
+    <row r="285" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A285" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="17"/>
-      <c r="C285" s="17" t="s">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="33" t="s">
+    <row r="286" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A286" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="33"/>
-      <c r="C286" s="33" t="s">
+      <c r="B286" s="28"/>
+      <c r="C286" s="28" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="17" t="s">
+    <row r="287" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="17"/>
-      <c r="C287" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="17" t="s">
+      <c r="B287" s="14"/>
+      <c r="C287" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A288" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="17"/>
-      <c r="C288" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="33" t="s">
+      <c r="B288" s="14"/>
+      <c r="C288" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A289" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="33"/>
-      <c r="C289" s="33" t="s">
+      <c r="B289" s="28"/>
+      <c r="C289" s="28" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="33" t="s">
+    <row r="290" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A290" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="33"/>
-      <c r="C290" s="33" t="s">
+      <c r="B290" s="28"/>
+      <c r="C290" s="28" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>287</v>
       </c>
@@ -5011,16 +5159,16 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="17" t="s">
+    <row r="292" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A292" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="17"/>
-      <c r="C292" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="14"/>
+      <c r="C292" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>289</v>
       </c>
@@ -5031,27 +5179,25 @@
         <v>551</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="17" t="s">
+    <row r="294" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A294" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="17"/>
-      <c r="C294" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="29" t="s">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A295" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B295" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C295" s="29" t="s">
+      <c r="B295" s="7"/>
+      <c r="C295" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A296" s="7" t="s">
         <v>291</v>
       </c>
@@ -5060,7 +5206,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A297" s="7" t="s">
         <v>292</v>
       </c>
@@ -5069,16 +5215,16 @@
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="17" t="s">
+    <row r="298" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A298" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="17"/>
-      <c r="C298" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="14"/>
+      <c r="C298" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A299" s="7" t="s">
         <v>294</v>
       </c>
@@ -5087,38 +5233,38 @@
         <v>555</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A300" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="17" t="s">
+    <row r="302" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A302" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B302" s="17"/>
-      <c r="C302" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A303" s="7" t="s">
         <v>298</v>
       </c>
@@ -5127,54 +5273,52 @@
         <v>558</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="17" t="s">
+    <row r="304" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A304" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B304" s="17"/>
-      <c r="C304" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="17" t="s">
+      <c r="B304" s="14"/>
+      <c r="C304" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A305" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="17" t="s">
+      <c r="B305" s="14"/>
+      <c r="C305" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A306" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17" t="s">
+      <c r="B306" s="14"/>
+      <c r="C306" s="14" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="29" t="s">
+    <row r="307" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A307" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B307" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C307" s="29" t="s">
+      <c r="B307" s="7"/>
+      <c r="C307" s="7" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="17" t="s">
+    <row r="308" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A308" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="14"/>
+      <c r="C308" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A309" s="7" t="s">
         <v>304</v>
       </c>
@@ -5183,16 +5327,16 @@
         <v>561</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="17" t="s">
+    <row r="310" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A310" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B310" s="17"/>
-      <c r="C310" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="14"/>
+      <c r="C310" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A311" s="7" t="s">
         <v>306</v>
       </c>
@@ -5201,18 +5345,18 @@
         <v>562</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A312" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A313" s="7" t="s">
         <v>308</v>
       </c>
@@ -5221,48 +5365,49 @@
         <v>564</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+    <row r="315" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A315" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="B315" s="7"/>
+      <c r="C315" s="7" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A316" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="318" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
@@ -5273,7 +5418,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A319" s="7" t="s">
         <v>314</v>
       </c>
@@ -5282,16 +5427,16 @@
         <v>570</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="17" t="s">
+    <row r="320" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A320" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B320" s="17"/>
-      <c r="C320" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="14"/>
+      <c r="C320" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A321" s="7" t="s">
         <v>316</v>
       </c>
@@ -5300,7 +5445,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A322" s="7" t="s">
         <v>317</v>
       </c>
@@ -5309,16 +5454,16 @@
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="17" t="s">
+    <row r="323" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B323" s="17"/>
-      <c r="C323" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="14"/>
+      <c r="C323" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A324" s="7" t="s">
         <v>319</v>
       </c>
@@ -5327,7 +5472,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A325" s="7" t="s">
         <v>320</v>
       </c>
@@ -5336,7 +5481,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A326" s="7" t="s">
         <v>321</v>
       </c>
@@ -5345,7 +5490,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A327" s="7" t="s">
         <v>322</v>
       </c>
@@ -5354,7 +5499,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A328" s="7" t="s">
         <v>323</v>
       </c>
@@ -5363,7 +5508,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A329" s="7" t="s">
         <v>324</v>
       </c>
@@ -5372,7 +5517,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A330" s="7" t="s">
         <v>325</v>
       </c>
@@ -5381,27 +5526,27 @@
         <v>579</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="35" t="s">
+    <row r="331" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A331" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="B331" s="35"/>
-      <c r="C331" s="35" t="s">
+      <c r="B331" s="30"/>
+      <c r="C331" s="30" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A332" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A333" s="7" t="s">
         <v>328</v>
       </c>
@@ -5410,16 +5555,16 @@
         <v>582</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="17" t="s">
+    <row r="334" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A334" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B334" s="17"/>
-      <c r="C334" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="14"/>
+      <c r="C334" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A335" s="7" t="s">
         <v>330</v>
       </c>
@@ -5428,7 +5573,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A336" s="7" t="s">
         <v>331</v>
       </c>
@@ -5437,7 +5582,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A337" s="7" t="s">
         <v>332</v>
       </c>
@@ -5446,34 +5591,34 @@
         <v>585</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="17" t="s">
+    <row r="338" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A338" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B338" s="17"/>
-      <c r="C338" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="17" t="s">
+      <c r="B338" s="14"/>
+      <c r="C338" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A339" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B339" s="17"/>
-      <c r="C339" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="17" t="s">
+      <c r="B339" s="14"/>
+      <c r="C339" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A340" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B340" s="17"/>
-      <c r="C340" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="14"/>
+      <c r="C340" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A341" s="7" t="s">
         <v>334</v>
       </c>
@@ -5482,7 +5627,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A342" s="7" t="s">
         <v>335</v>
       </c>
@@ -5491,7 +5636,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A343" s="7" t="s">
         <v>336</v>
       </c>
@@ -5500,7 +5645,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="7" t="s">
         <v>337</v>
       </c>
@@ -5509,7 +5654,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="7" t="s">
         <v>338</v>
       </c>
@@ -5518,7 +5663,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" s="9" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="7" t="s">
         <v>339</v>
       </c>
@@ -5527,40 +5672,40 @@
         <v>591</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A348" s="4" t="s">
         <v>341</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A350" s="4" t="s">
         <v>343</v>
       </c>
@@ -5572,11 +5717,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C350" xr:uid="{8BF0FBF6-5540-4463-9286-98C1726D2510}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00F11AB2-170B-41E6-AECC-4521DA0547FD}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{755E1ECF-2C9C-48E2-8BBD-64DCD6361330}"/>
@@ -5667,8 +5808,9 @@
     <hyperlink ref="C89" r:id="rId87" xr:uid="{F6219BA3-1D74-480C-9ABA-317839925873}"/>
     <hyperlink ref="C44" r:id="rId88" xr:uid="{2580578D-69B6-45AB-9C0F-8B9E0813EE8A}"/>
     <hyperlink ref="C282" r:id="rId89" xr:uid="{2E8F4894-95BC-4E16-AC2D-42426027A339}"/>
+    <hyperlink ref="C152" r:id="rId90" xr:uid="{9BF564ED-0677-40C5-B16F-E1878A1A7A72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>